--- a/forms/app/become_sessions.xlsx
+++ b/forms/app/become_sessions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="452">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -242,7 +242,7 @@
   </si>
   <si>
     <t xml:space="preserve">तपाईं सहभागीलाई भेट गर्दै हुनुहुन्छ
-किनभने उहाँमा अत्यधिक चिन्ता देखिएको छ I                                                                                                                                                                                                                                                        EBSR भेट सुरु गर्नुहोस् I </t>
+किनभने उहाँमा अत्यधिक चिन्ता देखिएको छ I                              </t>
   </si>
   <si>
     <t xml:space="preserve">You are visiting
@@ -282,6 +282,76 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">select_one ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebsr_visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBSR भेट सुरु गर्नुहोस् I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebsr_start_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start time </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">anxiety_session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'first' or ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">anxiety_session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'second1' ) and ${ebsr_visit} = ‘ok’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">now()</t>
+  </si>
+  <si>
     <t xml:space="preserve">AB_sessI_step1</t>
   </si>
   <si>
@@ -341,7 +411,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">select_one yes_no</t>
+    <t xml:space="preserve">select_one true_false</t>
   </si>
   <si>
     <t xml:space="preserve">ABsessI_agree_record</t>
@@ -381,6 +451,9 @@
   </si>
   <si>
     <t xml:space="preserve">Step 3: Establish ground rules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
   </si>
   <si>
     <t xml:space="preserve">ensure_condition</t>
@@ -669,9 +742,6 @@
     <t xml:space="preserve">Step 8: End the session                                                                                                                                                                                                                                                                                </t>
   </si>
   <si>
-    <t xml:space="preserve">select_one ok</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABsessI_completed</t>
   </si>
   <si>
@@ -748,8 +818,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण १: गोपनियता, आधारभूत नियमहरू र अडियो रेकर्डिङको बारेमा समीक्षा गर्ने
-</t>
+      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण १: गोपनियता, आधारभूत नियमहरू र अडियो रेकर्डिङको बारेमा समीक्षा गर्ने</t>
     </r>
     <r>
       <rPr>
@@ -986,7 +1055,7 @@
     <t xml:space="preserve">Field-list </t>
   </si>
   <si>
-    <t xml:space="preserve">BSsessI_agree_record</t>
+    <t xml:space="preserve">BssessI_step4</t>
   </si>
   <si>
     <r>
@@ -1008,14 +1077,12 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">चरण ४: शरीर स्क्यान अभ्यासको परिचय दिने  I 
-**&lt;/span&gt;
+      <t xml:space="preserve">चरण ४: शरीर स्क्यान अभ्यासको परिचय दिने**&lt;/span&gt;
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Does participant ready for recording Body Scan session 1?
-If yes, please start the recording.</t>
+    <t xml:space="preserve">Step 4: Introduce Body Scan</t>
   </si>
   <si>
     <t xml:space="preserve">BSsessI_step5</t>
@@ -1057,8 +1124,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Step 5: Introduction of Body Scan                                                                                                                                                                                                                                         
-          </t>
+    <t xml:space="preserve">Step 5: Practice Body Scan.                                                         - Demonstrate the skill
+- Practice with the participant (you can use the audio received during the training for the practice)                                                     
+Note: Spend time to talk about the experience of the participant. While talking use basic helping skills ( active listening,etc.)                                                                                                                                                                                                                                                </t>
   </si>
   <si>
     <t xml:space="preserve">BSsessI_step6</t>
@@ -1132,7 +1200,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                   Step 6: Practice Body Scan.                                                                                                                                                                                                                                                  Note 1: First practise according to Manual, demonstrate and practise togetherly [You can practise while listening to the audio tapes that you have got in the Training                                                                                                                                                                                                                     Note 2: Spend time to talk about the experience of the participant. While talking use basic helping skills ( active listening,etc.)                                                                                                                                                                                                                                                      </t>
+    <t xml:space="preserve">Step 6: Practice Body Scan.                                                         Note 1: First practise according to Manual, demonstrate and practise togetherly [You can practise while listening to the audio tapes that you have got in the Training                                                                                Note 2: Spend time to talk about the experience of the participant. While talking use basic helping skills ( active listening,etc.)                                                                                                                                                                                                                                                      </t>
   </si>
   <si>
     <t xml:space="preserve">BSsessI_step7</t>
@@ -1171,20 +1239,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Step 7. Introduces homework assignment                                                                                                                                                                                                                        Note 1: After talking about the importance of homework plan with participant such as what time in a day,how many days in a week, probable challenges and easy way of practising.                                                                                                                                                                                                                                                                                                 Note 2: Give audio tapes of Body Scan to the participants                                                                                                                                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSsessI_step8</t>
+    <t xml:space="preserve">Step 7: End the session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BssessI_completed</t>
   </si>
   <si>
     <t xml:space="preserve">शरीर स्क्यान भेट १ सकियो, रेकर्डिङ बन्द गर्नुहोस् । </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 8: End the session.
-                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSsessI_completed</t>
   </si>
   <si>
     <t xml:space="preserve">Body Scan session I has been completed,
@@ -1470,6 +1531,15 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ebsr_end_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ABsessI_completed} = 'ok' or ${ABsessII_completed} = 'ok' or ${BssessI_completed} = 'ok' or ${BSsessII_completed} = 'ok'</t>
+  </si>
+  <si>
     <t xml:space="preserve">behavorial_activation</t>
   </si>
   <si>
@@ -1629,64 +1699,62 @@
   </si>
   <si>
     <t xml:space="preserve">
-Step 2. Review confidentiality and take consent  about audio tapes   
+Step 2. Review confidentiality and remind about audio tapes   
    </t>
   </si>
   <si>
-    <t xml:space="preserve">start_ebsr_BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चरण १: गोपनियता, आधारभूत नियमहरू र अडियो रेकर्डिङको बारेमा समीक्षा गर्ने</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Person's name] has depression and DM/HTN, please start the session with BA session I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA_sessI_step2.1</t>
+    <t xml:space="preserve">BA_sessI_step2_1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">चरण २.१: गोपनियता, आधारभूत नियमहरू र अडियो रेकर्डिङको बारेमा समीक्षा गर्ने**&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2.1. Review confidentiality, ground rules and audio recording.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BasessI_agree_record</t>
   </si>
   <si>
     <t xml:space="preserve">के सहभागी सक्रिय व्यवहार विधि भेट १ रेकर्ड गर्न सहमत हुनुहुन्छ? यदि हो भने, रेकर्डिङ शुरु गर्नुहोस् ।</t>
   </si>
   <si>
-    <t xml:space="preserve">Step . 2.1. Establish ground rules
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAsessI_agree_record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण २.१  : आधारभूत नियमहरू बनाउनुहोस् ।**&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did the participant agree to record the
+    <t xml:space="preserve">Does the participant agree to record the
 Behavioral Activation session I? If yes, please start the recording.</t>
   </si>
   <si>
-    <t xml:space="preserve">BA_sessI_step2.2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण २.२. घरमा गरिने अभ्यासको  छोटो समीक्षा गर्नुहोस् I**&lt;/span&gt;
-**[नोट: सहभागी संगको यो पहिलो भेट हो भने, यो चरणमा जानु पर्दैन]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">**</t>
-    </r>
+    <t xml:space="preserve">BA_sessI_step2_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण २.२  : आधारभूत नियमहरू बनाउनुहोस् ।**&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step . 2.2. Establish ground rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA_sessI_step2_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण २.३. घरमा गरिने अभ्यासको  छोटो समीक्षा गर्नुहोस् I**&lt;/span&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Step 2.2. Review of homework briefly                                                                                                                                                                                                                           [Note: If this is the first session with participants, this step is not needed]                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
@@ -1816,7 +1884,7 @@
       <t xml:space="preserve">                                                    
 *- घरमा गरिने अभ्यासको महत्व भन्नुहोस ।*                                                                           
 *- सहभागीसंग मिलेर घरमा गरिने अभ्यास बनाउनुहोस । ( जस्तै: दिनमा कुन समय, हप्तामा कति दिन, आउन सक्ने चुनौती र अभ्यास सजिलो बनाउने तरिका)*
-*- घरमा गरिने अभ्यासको लागि कार्यपत्र II दिनुहोला ।*    </t>
+*- घरमा गरिने अभ्यासको लागि कार्यपत्र २ दिनुहोला ।*    </t>
     </r>
   </si>
   <si>
@@ -2565,7 +2633,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण 3:परिवर्तन गर्नुपर्ने व्यवहारमा  [target behavior] काम  गर्ने**&lt;/span&gt;
+      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण ३:परिवर्तन गर्नुपर्ने व्यवहारमा  [target behavior] काम  गर्ने**&lt;/span&gt;
 </t>
     </r>
     <r>
@@ -2764,7 +2832,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण २ : घरमा गरिने अभ्यासको समिक्षा गर्ने  I**&lt;/span&gt;
+      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण २ : घरमा गरिने अभ्यासको समिक्षा गर्ने**&lt;/span&gt;
 </t>
     </r>
     <r>
@@ -2814,7 +2882,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण 3 : परिवर्तन गर्नुपर्ने व्यवहारमा  [target behavior] काम  गर्ने**&lt;/span&gt;
+      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण ३ : परिवर्तन गर्नुपर्ने व्यवहारमा  [target behavior] काम  गर्ने**&lt;/span&gt;
 </t>
     </r>
     <r>
@@ -2899,17 +2967,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण ५ : घरमा गरिने अभ्यासको समीक्षा, छलफल गर्ने अनि भेट समापन गर्ने </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">I**&lt;/span&gt;</t>
+      <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण ५ : घरमा गरिने अभ्यासको समीक्षा, छलफल गर्ने अनि भेट समापन गर्ने</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">**&lt;/span&gt;</t>
     </r>
   </si>
   <si>
@@ -3020,7 +3088,7 @@
     <t xml:space="preserve">MIsessIV_step2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण २ : MI का घरमा गर्ने अभ्यासहरूको  समिक्षा र परिवर्तनमा काम गरिरहने बारे छलफल गर्ने I**&lt;/span&gt;</t>
+    <t xml:space="preserve">&lt;span style="color:#bb0000"&gt;**चरण २ : MI का घरमा गर्ने अभ्यासहरूको  समिक्षा र परिवर्तनमा काम गरिरहने बारे छलफल गर्ने**&lt;/span&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Step 2: MI homework review and discussion of continuing work on target behaviors</t>
@@ -3175,6 +3243,21 @@
   </si>
   <si>
     <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">हो</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falsee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">होइन</t>
   </si>
   <si>
     <t xml:space="preserve">session_ab</t>
@@ -3299,8 +3382,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3634,7 +3718,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3895,6 +3979,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3980,12 +4068,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ149"/>
+  <dimension ref="A1:AMJ151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C148" activeCellId="0" sqref="C148"/>
+      <selection pane="bottomLeft" activeCell="F72" activeCellId="0" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5629,7 +5717,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -5656,24 +5744,20 @@
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="10"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -5683,59 +5767,63 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="18" t="s">
+    <row r="28" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="K28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="0"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
@@ -5763,1051 +5851,52 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="0"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0"/>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
-      <c r="AB30" s="0"/>
-      <c r="AC30" s="0"/>
-      <c r="AD30" s="0"/>
-      <c r="AE30" s="0"/>
-      <c r="AF30" s="0"/>
-      <c r="AG30" s="0"/>
-      <c r="AH30" s="0"/>
-      <c r="AI30" s="0"/>
-      <c r="AJ30" s="0"/>
-      <c r="AK30" s="0"/>
-      <c r="AL30" s="0"/>
-      <c r="AM30" s="0"/>
-      <c r="AN30" s="0"/>
-      <c r="AO30" s="0"/>
-      <c r="AP30" s="0"/>
-      <c r="AQ30" s="0"/>
-      <c r="AR30" s="0"/>
-      <c r="AS30" s="0"/>
-      <c r="AT30" s="0"/>
-      <c r="AU30" s="0"/>
-      <c r="AV30" s="0"/>
-      <c r="AW30" s="0"/>
-      <c r="AX30" s="0"/>
-      <c r="AY30" s="0"/>
-      <c r="AZ30" s="0"/>
-      <c r="BA30" s="0"/>
-      <c r="BB30" s="0"/>
-      <c r="BC30" s="0"/>
-      <c r="BD30" s="0"/>
-      <c r="BE30" s="0"/>
-      <c r="BF30" s="0"/>
-      <c r="BG30" s="0"/>
-      <c r="BH30" s="0"/>
-      <c r="BI30" s="0"/>
-      <c r="BJ30" s="0"/>
-      <c r="BK30" s="0"/>
-      <c r="BL30" s="0"/>
-      <c r="BM30" s="0"/>
-      <c r="BN30" s="0"/>
-      <c r="BO30" s="0"/>
-      <c r="BP30" s="0"/>
-      <c r="BQ30" s="0"/>
-      <c r="BR30" s="0"/>
-      <c r="BS30" s="0"/>
-      <c r="BT30" s="0"/>
-      <c r="BU30" s="0"/>
-      <c r="BV30" s="0"/>
-      <c r="BW30" s="0"/>
-      <c r="BX30" s="0"/>
-      <c r="BY30" s="0"/>
-      <c r="BZ30" s="0"/>
-      <c r="CA30" s="0"/>
-      <c r="CB30" s="0"/>
-      <c r="CC30" s="0"/>
-      <c r="CD30" s="0"/>
-      <c r="CE30" s="0"/>
-      <c r="CF30" s="0"/>
-      <c r="CG30" s="0"/>
-      <c r="CH30" s="0"/>
-      <c r="CI30" s="0"/>
-      <c r="CJ30" s="0"/>
-      <c r="CK30" s="0"/>
-      <c r="CL30" s="0"/>
-      <c r="CM30" s="0"/>
-      <c r="CN30" s="0"/>
-      <c r="CO30" s="0"/>
-      <c r="CP30" s="0"/>
-      <c r="CQ30" s="0"/>
-      <c r="CR30" s="0"/>
-      <c r="CS30" s="0"/>
-      <c r="CT30" s="0"/>
-      <c r="CU30" s="0"/>
-      <c r="CV30" s="0"/>
-      <c r="CW30" s="0"/>
-      <c r="CX30" s="0"/>
-      <c r="CY30" s="0"/>
-      <c r="CZ30" s="0"/>
-      <c r="DA30" s="0"/>
-      <c r="DB30" s="0"/>
-      <c r="DC30" s="0"/>
-      <c r="DD30" s="0"/>
-      <c r="DE30" s="0"/>
-      <c r="DF30" s="0"/>
-      <c r="DG30" s="0"/>
-      <c r="DH30" s="0"/>
-      <c r="DI30" s="0"/>
-      <c r="DJ30" s="0"/>
-      <c r="DK30" s="0"/>
-      <c r="DL30" s="0"/>
-      <c r="DM30" s="0"/>
-      <c r="DN30" s="0"/>
-      <c r="DO30" s="0"/>
-      <c r="DP30" s="0"/>
-      <c r="DQ30" s="0"/>
-      <c r="DR30" s="0"/>
-      <c r="DS30" s="0"/>
-      <c r="DT30" s="0"/>
-      <c r="DU30" s="0"/>
-      <c r="DV30" s="0"/>
-      <c r="DW30" s="0"/>
-      <c r="DX30" s="0"/>
-      <c r="DY30" s="0"/>
-      <c r="DZ30" s="0"/>
-      <c r="EA30" s="0"/>
-      <c r="EB30" s="0"/>
-      <c r="EC30" s="0"/>
-      <c r="ED30" s="0"/>
-      <c r="EE30" s="0"/>
-      <c r="EF30" s="0"/>
-      <c r="EG30" s="0"/>
-      <c r="EH30" s="0"/>
-      <c r="EI30" s="0"/>
-      <c r="EJ30" s="0"/>
-      <c r="EK30" s="0"/>
-      <c r="EL30" s="0"/>
-      <c r="EM30" s="0"/>
-      <c r="EN30" s="0"/>
-      <c r="EO30" s="0"/>
-      <c r="EP30" s="0"/>
-      <c r="EQ30" s="0"/>
-      <c r="ER30" s="0"/>
-      <c r="ES30" s="0"/>
-      <c r="ET30" s="0"/>
-      <c r="EU30" s="0"/>
-      <c r="EV30" s="0"/>
-      <c r="EW30" s="0"/>
-      <c r="EX30" s="0"/>
-      <c r="EY30" s="0"/>
-      <c r="EZ30" s="0"/>
-      <c r="FA30" s="0"/>
-      <c r="FB30" s="0"/>
-      <c r="FC30" s="0"/>
-      <c r="FD30" s="0"/>
-      <c r="FE30" s="0"/>
-      <c r="FF30" s="0"/>
-      <c r="FG30" s="0"/>
-      <c r="FH30" s="0"/>
-      <c r="FI30" s="0"/>
-      <c r="FJ30" s="0"/>
-      <c r="FK30" s="0"/>
-      <c r="FL30" s="0"/>
-      <c r="FM30" s="0"/>
-      <c r="FN30" s="0"/>
-      <c r="FO30" s="0"/>
-      <c r="FP30" s="0"/>
-      <c r="FQ30" s="0"/>
-      <c r="FR30" s="0"/>
-      <c r="FS30" s="0"/>
-      <c r="FT30" s="0"/>
-      <c r="FU30" s="0"/>
-      <c r="FV30" s="0"/>
-      <c r="FW30" s="0"/>
-      <c r="FX30" s="0"/>
-      <c r="FY30" s="0"/>
-      <c r="FZ30" s="0"/>
-      <c r="GA30" s="0"/>
-      <c r="GB30" s="0"/>
-      <c r="GC30" s="0"/>
-      <c r="GD30" s="0"/>
-      <c r="GE30" s="0"/>
-      <c r="GF30" s="0"/>
-      <c r="GG30" s="0"/>
-      <c r="GH30" s="0"/>
-      <c r="GI30" s="0"/>
-      <c r="GJ30" s="0"/>
-      <c r="GK30" s="0"/>
-      <c r="GL30" s="0"/>
-      <c r="GM30" s="0"/>
-      <c r="GN30" s="0"/>
-      <c r="GO30" s="0"/>
-      <c r="GP30" s="0"/>
-      <c r="GQ30" s="0"/>
-      <c r="GR30" s="0"/>
-      <c r="GS30" s="0"/>
-      <c r="GT30" s="0"/>
-      <c r="GU30" s="0"/>
-      <c r="GV30" s="0"/>
-      <c r="GW30" s="0"/>
-      <c r="GX30" s="0"/>
-      <c r="GY30" s="0"/>
-      <c r="GZ30" s="0"/>
-      <c r="HA30" s="0"/>
-      <c r="HB30" s="0"/>
-      <c r="HC30" s="0"/>
-      <c r="HD30" s="0"/>
-      <c r="HE30" s="0"/>
-      <c r="HF30" s="0"/>
-      <c r="HG30" s="0"/>
-      <c r="HH30" s="0"/>
-      <c r="HI30" s="0"/>
-      <c r="HJ30" s="0"/>
-      <c r="HK30" s="0"/>
-      <c r="HL30" s="0"/>
-      <c r="HM30" s="0"/>
-      <c r="HN30" s="0"/>
-      <c r="HO30" s="0"/>
-      <c r="HP30" s="0"/>
-      <c r="HQ30" s="0"/>
-      <c r="HR30" s="0"/>
-      <c r="HS30" s="0"/>
-      <c r="HT30" s="0"/>
-      <c r="HU30" s="0"/>
-      <c r="HV30" s="0"/>
-      <c r="HW30" s="0"/>
-      <c r="HX30" s="0"/>
-      <c r="HY30" s="0"/>
-      <c r="HZ30" s="0"/>
-      <c r="IA30" s="0"/>
-      <c r="IB30" s="0"/>
-      <c r="IC30" s="0"/>
-      <c r="ID30" s="0"/>
-      <c r="IE30" s="0"/>
-      <c r="IF30" s="0"/>
-      <c r="IG30" s="0"/>
-      <c r="IH30" s="0"/>
-      <c r="II30" s="0"/>
-      <c r="IJ30" s="0"/>
-      <c r="IK30" s="0"/>
-      <c r="IL30" s="0"/>
-      <c r="IM30" s="0"/>
-      <c r="IN30" s="0"/>
-      <c r="IO30" s="0"/>
-      <c r="IP30" s="0"/>
-      <c r="IQ30" s="0"/>
-      <c r="IR30" s="0"/>
-      <c r="IS30" s="0"/>
-      <c r="IT30" s="0"/>
-      <c r="IU30" s="0"/>
-      <c r="IV30" s="0"/>
-      <c r="IW30" s="0"/>
-      <c r="IX30" s="0"/>
-      <c r="IY30" s="0"/>
-      <c r="IZ30" s="0"/>
-      <c r="JA30" s="0"/>
-      <c r="JB30" s="0"/>
-      <c r="JC30" s="0"/>
-      <c r="JD30" s="0"/>
-      <c r="JE30" s="0"/>
-      <c r="JF30" s="0"/>
-      <c r="JG30" s="0"/>
-      <c r="JH30" s="0"/>
-      <c r="JI30" s="0"/>
-      <c r="JJ30" s="0"/>
-      <c r="JK30" s="0"/>
-      <c r="JL30" s="0"/>
-      <c r="JM30" s="0"/>
-      <c r="JN30" s="0"/>
-      <c r="JO30" s="0"/>
-      <c r="JP30" s="0"/>
-      <c r="JQ30" s="0"/>
-      <c r="JR30" s="0"/>
-      <c r="JS30" s="0"/>
-      <c r="JT30" s="0"/>
-      <c r="JU30" s="0"/>
-      <c r="JV30" s="0"/>
-      <c r="JW30" s="0"/>
-      <c r="JX30" s="0"/>
-      <c r="JY30" s="0"/>
-      <c r="JZ30" s="0"/>
-      <c r="KA30" s="0"/>
-      <c r="KB30" s="0"/>
-      <c r="KC30" s="0"/>
-      <c r="KD30" s="0"/>
-      <c r="KE30" s="0"/>
-      <c r="KF30" s="0"/>
-      <c r="KG30" s="0"/>
-      <c r="KH30" s="0"/>
-      <c r="KI30" s="0"/>
-      <c r="KJ30" s="0"/>
-      <c r="KK30" s="0"/>
-      <c r="KL30" s="0"/>
-      <c r="KM30" s="0"/>
-      <c r="KN30" s="0"/>
-      <c r="KO30" s="0"/>
-      <c r="KP30" s="0"/>
-      <c r="KQ30" s="0"/>
-      <c r="KR30" s="0"/>
-      <c r="KS30" s="0"/>
-      <c r="KT30" s="0"/>
-      <c r="KU30" s="0"/>
-      <c r="KV30" s="0"/>
-      <c r="KW30" s="0"/>
-      <c r="KX30" s="0"/>
-      <c r="KY30" s="0"/>
-      <c r="KZ30" s="0"/>
-      <c r="LA30" s="0"/>
-      <c r="LB30" s="0"/>
-      <c r="LC30" s="0"/>
-      <c r="LD30" s="0"/>
-      <c r="LE30" s="0"/>
-      <c r="LF30" s="0"/>
-      <c r="LG30" s="0"/>
-      <c r="LH30" s="0"/>
-      <c r="LI30" s="0"/>
-      <c r="LJ30" s="0"/>
-      <c r="LK30" s="0"/>
-      <c r="LL30" s="0"/>
-      <c r="LM30" s="0"/>
-      <c r="LN30" s="0"/>
-      <c r="LO30" s="0"/>
-      <c r="LP30" s="0"/>
-      <c r="LQ30" s="0"/>
-      <c r="LR30" s="0"/>
-      <c r="LS30" s="0"/>
-      <c r="LT30" s="0"/>
-      <c r="LU30" s="0"/>
-      <c r="LV30" s="0"/>
-      <c r="LW30" s="0"/>
-      <c r="LX30" s="0"/>
-      <c r="LY30" s="0"/>
-      <c r="LZ30" s="0"/>
-      <c r="MA30" s="0"/>
-      <c r="MB30" s="0"/>
-      <c r="MC30" s="0"/>
-      <c r="MD30" s="0"/>
-      <c r="ME30" s="0"/>
-      <c r="MF30" s="0"/>
-      <c r="MG30" s="0"/>
-      <c r="MH30" s="0"/>
-      <c r="MI30" s="0"/>
-      <c r="MJ30" s="0"/>
-      <c r="MK30" s="0"/>
-      <c r="ML30" s="0"/>
-      <c r="MM30" s="0"/>
-      <c r="MN30" s="0"/>
-      <c r="MO30" s="0"/>
-      <c r="MP30" s="0"/>
-      <c r="MQ30" s="0"/>
-      <c r="MR30" s="0"/>
-      <c r="MS30" s="0"/>
-      <c r="MT30" s="0"/>
-      <c r="MU30" s="0"/>
-      <c r="MV30" s="0"/>
-      <c r="MW30" s="0"/>
-      <c r="MX30" s="0"/>
-      <c r="MY30" s="0"/>
-      <c r="MZ30" s="0"/>
-      <c r="NA30" s="0"/>
-      <c r="NB30" s="0"/>
-      <c r="NC30" s="0"/>
-      <c r="ND30" s="0"/>
-      <c r="NE30" s="0"/>
-      <c r="NF30" s="0"/>
-      <c r="NG30" s="0"/>
-      <c r="NH30" s="0"/>
-      <c r="NI30" s="0"/>
-      <c r="NJ30" s="0"/>
-      <c r="NK30" s="0"/>
-      <c r="NL30" s="0"/>
-      <c r="NM30" s="0"/>
-      <c r="NN30" s="0"/>
-      <c r="NO30" s="0"/>
-      <c r="NP30" s="0"/>
-      <c r="NQ30" s="0"/>
-      <c r="NR30" s="0"/>
-      <c r="NS30" s="0"/>
-      <c r="NT30" s="0"/>
-      <c r="NU30" s="0"/>
-      <c r="NV30" s="0"/>
-      <c r="NW30" s="0"/>
-      <c r="NX30" s="0"/>
-      <c r="NY30" s="0"/>
-      <c r="NZ30" s="0"/>
-      <c r="OA30" s="0"/>
-      <c r="OB30" s="0"/>
-      <c r="OC30" s="0"/>
-      <c r="OD30" s="0"/>
-      <c r="OE30" s="0"/>
-      <c r="OF30" s="0"/>
-      <c r="OG30" s="0"/>
-      <c r="OH30" s="0"/>
-      <c r="OI30" s="0"/>
-      <c r="OJ30" s="0"/>
-      <c r="OK30" s="0"/>
-      <c r="OL30" s="0"/>
-      <c r="OM30" s="0"/>
-      <c r="ON30" s="0"/>
-      <c r="OO30" s="0"/>
-      <c r="OP30" s="0"/>
-      <c r="OQ30" s="0"/>
-      <c r="OR30" s="0"/>
-      <c r="OS30" s="0"/>
-      <c r="OT30" s="0"/>
-      <c r="OU30" s="0"/>
-      <c r="OV30" s="0"/>
-      <c r="OW30" s="0"/>
-      <c r="OX30" s="0"/>
-      <c r="OY30" s="0"/>
-      <c r="OZ30" s="0"/>
-      <c r="PA30" s="0"/>
-      <c r="PB30" s="0"/>
-      <c r="PC30" s="0"/>
-      <c r="PD30" s="0"/>
-      <c r="PE30" s="0"/>
-      <c r="PF30" s="0"/>
-      <c r="PG30" s="0"/>
-      <c r="PH30" s="0"/>
-      <c r="PI30" s="0"/>
-      <c r="PJ30" s="0"/>
-      <c r="PK30" s="0"/>
-      <c r="PL30" s="0"/>
-      <c r="PM30" s="0"/>
-      <c r="PN30" s="0"/>
-      <c r="PO30" s="0"/>
-      <c r="PP30" s="0"/>
-      <c r="PQ30" s="0"/>
-      <c r="PR30" s="0"/>
-      <c r="PS30" s="0"/>
-      <c r="PT30" s="0"/>
-      <c r="PU30" s="0"/>
-      <c r="PV30" s="0"/>
-      <c r="PW30" s="0"/>
-      <c r="PX30" s="0"/>
-      <c r="PY30" s="0"/>
-      <c r="PZ30" s="0"/>
-      <c r="QA30" s="0"/>
-      <c r="QB30" s="0"/>
-      <c r="QC30" s="0"/>
-      <c r="QD30" s="0"/>
-      <c r="QE30" s="0"/>
-      <c r="QF30" s="0"/>
-      <c r="QG30" s="0"/>
-      <c r="QH30" s="0"/>
-      <c r="QI30" s="0"/>
-      <c r="QJ30" s="0"/>
-      <c r="QK30" s="0"/>
-      <c r="QL30" s="0"/>
-      <c r="QM30" s="0"/>
-      <c r="QN30" s="0"/>
-      <c r="QO30" s="0"/>
-      <c r="QP30" s="0"/>
-      <c r="QQ30" s="0"/>
-      <c r="QR30" s="0"/>
-      <c r="QS30" s="0"/>
-      <c r="QT30" s="0"/>
-      <c r="QU30" s="0"/>
-      <c r="QV30" s="0"/>
-      <c r="QW30" s="0"/>
-      <c r="QX30" s="0"/>
-      <c r="QY30" s="0"/>
-      <c r="QZ30" s="0"/>
-      <c r="RA30" s="0"/>
-      <c r="RB30" s="0"/>
-      <c r="RC30" s="0"/>
-      <c r="RD30" s="0"/>
-      <c r="RE30" s="0"/>
-      <c r="RF30" s="0"/>
-      <c r="RG30" s="0"/>
-      <c r="RH30" s="0"/>
-      <c r="RI30" s="0"/>
-      <c r="RJ30" s="0"/>
-      <c r="RK30" s="0"/>
-      <c r="RL30" s="0"/>
-      <c r="RM30" s="0"/>
-      <c r="RN30" s="0"/>
-      <c r="RO30" s="0"/>
-      <c r="RP30" s="0"/>
-      <c r="RQ30" s="0"/>
-      <c r="RR30" s="0"/>
-      <c r="RS30" s="0"/>
-      <c r="RT30" s="0"/>
-      <c r="RU30" s="0"/>
-      <c r="RV30" s="0"/>
-      <c r="RW30" s="0"/>
-      <c r="RX30" s="0"/>
-      <c r="RY30" s="0"/>
-      <c r="RZ30" s="0"/>
-      <c r="SA30" s="0"/>
-      <c r="SB30" s="0"/>
-      <c r="SC30" s="0"/>
-      <c r="SD30" s="0"/>
-      <c r="SE30" s="0"/>
-      <c r="SF30" s="0"/>
-      <c r="SG30" s="0"/>
-      <c r="SH30" s="0"/>
-      <c r="SI30" s="0"/>
-      <c r="SJ30" s="0"/>
-      <c r="SK30" s="0"/>
-      <c r="SL30" s="0"/>
-      <c r="SM30" s="0"/>
-      <c r="SN30" s="0"/>
-      <c r="SO30" s="0"/>
-      <c r="SP30" s="0"/>
-      <c r="SQ30" s="0"/>
-      <c r="SR30" s="0"/>
-      <c r="SS30" s="0"/>
-      <c r="ST30" s="0"/>
-      <c r="SU30" s="0"/>
-      <c r="SV30" s="0"/>
-      <c r="SW30" s="0"/>
-      <c r="SX30" s="0"/>
-      <c r="SY30" s="0"/>
-      <c r="SZ30" s="0"/>
-      <c r="TA30" s="0"/>
-      <c r="TB30" s="0"/>
-      <c r="TC30" s="0"/>
-      <c r="TD30" s="0"/>
-      <c r="TE30" s="0"/>
-      <c r="TF30" s="0"/>
-      <c r="TG30" s="0"/>
-      <c r="TH30" s="0"/>
-      <c r="TI30" s="0"/>
-      <c r="TJ30" s="0"/>
-      <c r="TK30" s="0"/>
-      <c r="TL30" s="0"/>
-      <c r="TM30" s="0"/>
-      <c r="TN30" s="0"/>
-      <c r="TO30" s="0"/>
-      <c r="TP30" s="0"/>
-      <c r="TQ30" s="0"/>
-      <c r="TR30" s="0"/>
-      <c r="TS30" s="0"/>
-      <c r="TT30" s="0"/>
-      <c r="TU30" s="0"/>
-      <c r="TV30" s="0"/>
-      <c r="TW30" s="0"/>
-      <c r="TX30" s="0"/>
-      <c r="TY30" s="0"/>
-      <c r="TZ30" s="0"/>
-      <c r="UA30" s="0"/>
-      <c r="UB30" s="0"/>
-      <c r="UC30" s="0"/>
-      <c r="UD30" s="0"/>
-      <c r="UE30" s="0"/>
-      <c r="UF30" s="0"/>
-      <c r="UG30" s="0"/>
-      <c r="UH30" s="0"/>
-      <c r="UI30" s="0"/>
-      <c r="UJ30" s="0"/>
-      <c r="UK30" s="0"/>
-      <c r="UL30" s="0"/>
-      <c r="UM30" s="0"/>
-      <c r="UN30" s="0"/>
-      <c r="UO30" s="0"/>
-      <c r="UP30" s="0"/>
-      <c r="UQ30" s="0"/>
-      <c r="UR30" s="0"/>
-      <c r="US30" s="0"/>
-      <c r="UT30" s="0"/>
-      <c r="UU30" s="0"/>
-      <c r="UV30" s="0"/>
-      <c r="UW30" s="0"/>
-      <c r="UX30" s="0"/>
-      <c r="UY30" s="0"/>
-      <c r="UZ30" s="0"/>
-      <c r="VA30" s="0"/>
-      <c r="VB30" s="0"/>
-      <c r="VC30" s="0"/>
-      <c r="VD30" s="0"/>
-      <c r="VE30" s="0"/>
-      <c r="VF30" s="0"/>
-      <c r="VG30" s="0"/>
-      <c r="VH30" s="0"/>
-      <c r="VI30" s="0"/>
-      <c r="VJ30" s="0"/>
-      <c r="VK30" s="0"/>
-      <c r="VL30" s="0"/>
-      <c r="VM30" s="0"/>
-      <c r="VN30" s="0"/>
-      <c r="VO30" s="0"/>
-      <c r="VP30" s="0"/>
-      <c r="VQ30" s="0"/>
-      <c r="VR30" s="0"/>
-      <c r="VS30" s="0"/>
-      <c r="VT30" s="0"/>
-      <c r="VU30" s="0"/>
-      <c r="VV30" s="0"/>
-      <c r="VW30" s="0"/>
-      <c r="VX30" s="0"/>
-      <c r="VY30" s="0"/>
-      <c r="VZ30" s="0"/>
-      <c r="WA30" s="0"/>
-      <c r="WB30" s="0"/>
-      <c r="WC30" s="0"/>
-      <c r="WD30" s="0"/>
-      <c r="WE30" s="0"/>
-      <c r="WF30" s="0"/>
-      <c r="WG30" s="0"/>
-      <c r="WH30" s="0"/>
-      <c r="WI30" s="0"/>
-      <c r="WJ30" s="0"/>
-      <c r="WK30" s="0"/>
-      <c r="WL30" s="0"/>
-      <c r="WM30" s="0"/>
-      <c r="WN30" s="0"/>
-      <c r="WO30" s="0"/>
-      <c r="WP30" s="0"/>
-      <c r="WQ30" s="0"/>
-      <c r="WR30" s="0"/>
-      <c r="WS30" s="0"/>
-      <c r="WT30" s="0"/>
-      <c r="WU30" s="0"/>
-      <c r="WV30" s="0"/>
-      <c r="WW30" s="0"/>
-      <c r="WX30" s="0"/>
-      <c r="WY30" s="0"/>
-      <c r="WZ30" s="0"/>
-      <c r="XA30" s="0"/>
-      <c r="XB30" s="0"/>
-      <c r="XC30" s="0"/>
-      <c r="XD30" s="0"/>
-      <c r="XE30" s="0"/>
-      <c r="XF30" s="0"/>
-      <c r="XG30" s="0"/>
-      <c r="XH30" s="0"/>
-      <c r="XI30" s="0"/>
-      <c r="XJ30" s="0"/>
-      <c r="XK30" s="0"/>
-      <c r="XL30" s="0"/>
-      <c r="XM30" s="0"/>
-      <c r="XN30" s="0"/>
-      <c r="XO30" s="0"/>
-      <c r="XP30" s="0"/>
-      <c r="XQ30" s="0"/>
-      <c r="XR30" s="0"/>
-      <c r="XS30" s="0"/>
-      <c r="XT30" s="0"/>
-      <c r="XU30" s="0"/>
-      <c r="XV30" s="0"/>
-      <c r="XW30" s="0"/>
-      <c r="XX30" s="0"/>
-      <c r="XY30" s="0"/>
-      <c r="XZ30" s="0"/>
-      <c r="YA30" s="0"/>
-      <c r="YB30" s="0"/>
-      <c r="YC30" s="0"/>
-      <c r="YD30" s="0"/>
-      <c r="YE30" s="0"/>
-      <c r="YF30" s="0"/>
-      <c r="YG30" s="0"/>
-      <c r="YH30" s="0"/>
-      <c r="YI30" s="0"/>
-      <c r="YJ30" s="0"/>
-      <c r="YK30" s="0"/>
-      <c r="YL30" s="0"/>
-      <c r="YM30" s="0"/>
-      <c r="YN30" s="0"/>
-      <c r="YO30" s="0"/>
-      <c r="YP30" s="0"/>
-      <c r="YQ30" s="0"/>
-      <c r="YR30" s="0"/>
-      <c r="YS30" s="0"/>
-      <c r="YT30" s="0"/>
-      <c r="YU30" s="0"/>
-      <c r="YV30" s="0"/>
-      <c r="YW30" s="0"/>
-      <c r="YX30" s="0"/>
-      <c r="YY30" s="0"/>
-      <c r="YZ30" s="0"/>
-      <c r="ZA30" s="0"/>
-      <c r="ZB30" s="0"/>
-      <c r="ZC30" s="0"/>
-      <c r="ZD30" s="0"/>
-      <c r="ZE30" s="0"/>
-      <c r="ZF30" s="0"/>
-      <c r="ZG30" s="0"/>
-      <c r="ZH30" s="0"/>
-      <c r="ZI30" s="0"/>
-      <c r="ZJ30" s="0"/>
-      <c r="ZK30" s="0"/>
-      <c r="ZL30" s="0"/>
-      <c r="ZM30" s="0"/>
-      <c r="ZN30" s="0"/>
-      <c r="ZO30" s="0"/>
-      <c r="ZP30" s="0"/>
-      <c r="ZQ30" s="0"/>
-      <c r="ZR30" s="0"/>
-      <c r="ZS30" s="0"/>
-      <c r="ZT30" s="0"/>
-      <c r="ZU30" s="0"/>
-      <c r="ZV30" s="0"/>
-      <c r="ZW30" s="0"/>
-      <c r="ZX30" s="0"/>
-      <c r="ZY30" s="0"/>
-      <c r="ZZ30" s="0"/>
-      <c r="AAA30" s="0"/>
-      <c r="AAB30" s="0"/>
-      <c r="AAC30" s="0"/>
-      <c r="AAD30" s="0"/>
-      <c r="AAE30" s="0"/>
-      <c r="AAF30" s="0"/>
-      <c r="AAG30" s="0"/>
-      <c r="AAH30" s="0"/>
-      <c r="AAI30" s="0"/>
-      <c r="AAJ30" s="0"/>
-      <c r="AAK30" s="0"/>
-      <c r="AAL30" s="0"/>
-      <c r="AAM30" s="0"/>
-      <c r="AAN30" s="0"/>
-      <c r="AAO30" s="0"/>
-      <c r="AAP30" s="0"/>
-      <c r="AAQ30" s="0"/>
-      <c r="AAR30" s="0"/>
-      <c r="AAS30" s="0"/>
-      <c r="AAT30" s="0"/>
-      <c r="AAU30" s="0"/>
-      <c r="AAV30" s="0"/>
-      <c r="AAW30" s="0"/>
-      <c r="AAX30" s="0"/>
-      <c r="AAY30" s="0"/>
-      <c r="AAZ30" s="0"/>
-      <c r="ABA30" s="0"/>
-      <c r="ABB30" s="0"/>
-      <c r="ABC30" s="0"/>
-      <c r="ABD30" s="0"/>
-      <c r="ABE30" s="0"/>
-      <c r="ABF30" s="0"/>
-      <c r="ABG30" s="0"/>
-      <c r="ABH30" s="0"/>
-      <c r="ABI30" s="0"/>
-      <c r="ABJ30" s="0"/>
-      <c r="ABK30" s="0"/>
-      <c r="ABL30" s="0"/>
-      <c r="ABM30" s="0"/>
-      <c r="ABN30" s="0"/>
-      <c r="ABO30" s="0"/>
-      <c r="ABP30" s="0"/>
-      <c r="ABQ30" s="0"/>
-      <c r="ABR30" s="0"/>
-      <c r="ABS30" s="0"/>
-      <c r="ABT30" s="0"/>
-      <c r="ABU30" s="0"/>
-      <c r="ABV30" s="0"/>
-      <c r="ABW30" s="0"/>
-      <c r="ABX30" s="0"/>
-      <c r="ABY30" s="0"/>
-      <c r="ABZ30" s="0"/>
-      <c r="ACA30" s="0"/>
-      <c r="ACB30" s="0"/>
-      <c r="ACC30" s="0"/>
-      <c r="ACD30" s="0"/>
-      <c r="ACE30" s="0"/>
-      <c r="ACF30" s="0"/>
-      <c r="ACG30" s="0"/>
-      <c r="ACH30" s="0"/>
-      <c r="ACI30" s="0"/>
-      <c r="ACJ30" s="0"/>
-      <c r="ACK30" s="0"/>
-      <c r="ACL30" s="0"/>
-      <c r="ACM30" s="0"/>
-      <c r="ACN30" s="0"/>
-      <c r="ACO30" s="0"/>
-      <c r="ACP30" s="0"/>
-      <c r="ACQ30" s="0"/>
-      <c r="ACR30" s="0"/>
-      <c r="ACS30" s="0"/>
-      <c r="ACT30" s="0"/>
-      <c r="ACU30" s="0"/>
-      <c r="ACV30" s="0"/>
-      <c r="ACW30" s="0"/>
-      <c r="ACX30" s="0"/>
-      <c r="ACY30" s="0"/>
-      <c r="ACZ30" s="0"/>
-      <c r="ADA30" s="0"/>
-      <c r="ADB30" s="0"/>
-      <c r="ADC30" s="0"/>
-      <c r="ADD30" s="0"/>
-      <c r="ADE30" s="0"/>
-      <c r="ADF30" s="0"/>
-      <c r="ADG30" s="0"/>
-      <c r="ADH30" s="0"/>
-      <c r="ADI30" s="0"/>
-      <c r="ADJ30" s="0"/>
-      <c r="ADK30" s="0"/>
-      <c r="ADL30" s="0"/>
-      <c r="ADM30" s="0"/>
-      <c r="ADN30" s="0"/>
-      <c r="ADO30" s="0"/>
-      <c r="ADP30" s="0"/>
-      <c r="ADQ30" s="0"/>
-      <c r="ADR30" s="0"/>
-      <c r="ADS30" s="0"/>
-      <c r="ADT30" s="0"/>
-      <c r="ADU30" s="0"/>
-      <c r="ADV30" s="0"/>
-      <c r="ADW30" s="0"/>
-      <c r="ADX30" s="0"/>
-      <c r="ADY30" s="0"/>
-      <c r="ADZ30" s="0"/>
-      <c r="AEA30" s="0"/>
-      <c r="AEB30" s="0"/>
-      <c r="AEC30" s="0"/>
-      <c r="AED30" s="0"/>
-      <c r="AEE30" s="0"/>
-      <c r="AEF30" s="0"/>
-      <c r="AEG30" s="0"/>
-      <c r="AEH30" s="0"/>
-      <c r="AEI30" s="0"/>
-      <c r="AEJ30" s="0"/>
-      <c r="AEK30" s="0"/>
-      <c r="AEL30" s="0"/>
-      <c r="AEM30" s="0"/>
-      <c r="AEN30" s="0"/>
-      <c r="AEO30" s="0"/>
-      <c r="AEP30" s="0"/>
-      <c r="AEQ30" s="0"/>
-      <c r="AER30" s="0"/>
-      <c r="AES30" s="0"/>
-      <c r="AET30" s="0"/>
-      <c r="AEU30" s="0"/>
-      <c r="AEV30" s="0"/>
-      <c r="AEW30" s="0"/>
-      <c r="AEX30" s="0"/>
-      <c r="AEY30" s="0"/>
-      <c r="AEZ30" s="0"/>
-      <c r="AFA30" s="0"/>
-      <c r="AFB30" s="0"/>
-      <c r="AFC30" s="0"/>
-      <c r="AFD30" s="0"/>
-      <c r="AFE30" s="0"/>
-      <c r="AFF30" s="0"/>
-      <c r="AFG30" s="0"/>
-      <c r="AFH30" s="0"/>
-      <c r="AFI30" s="0"/>
-      <c r="AFJ30" s="0"/>
-      <c r="AFK30" s="0"/>
-      <c r="AFL30" s="0"/>
-      <c r="AFM30" s="0"/>
-      <c r="AFN30" s="0"/>
-      <c r="AFO30" s="0"/>
-      <c r="AFP30" s="0"/>
-      <c r="AFQ30" s="0"/>
-      <c r="AFR30" s="0"/>
-      <c r="AFS30" s="0"/>
-      <c r="AFT30" s="0"/>
-      <c r="AFU30" s="0"/>
-      <c r="AFV30" s="0"/>
-      <c r="AFW30" s="0"/>
-      <c r="AFX30" s="0"/>
-      <c r="AFY30" s="0"/>
-      <c r="AFZ30" s="0"/>
-      <c r="AGA30" s="0"/>
-      <c r="AGB30" s="0"/>
-      <c r="AGC30" s="0"/>
-      <c r="AGD30" s="0"/>
-      <c r="AGE30" s="0"/>
-      <c r="AGF30" s="0"/>
-      <c r="AGG30" s="0"/>
-      <c r="AGH30" s="0"/>
-      <c r="AGI30" s="0"/>
-      <c r="AGJ30" s="0"/>
-      <c r="AGK30" s="0"/>
-      <c r="AGL30" s="0"/>
-      <c r="AGM30" s="0"/>
-      <c r="AGN30" s="0"/>
-      <c r="AGO30" s="0"/>
-      <c r="AGP30" s="0"/>
-      <c r="AGQ30" s="0"/>
-      <c r="AGR30" s="0"/>
-      <c r="AGS30" s="0"/>
-      <c r="AGT30" s="0"/>
-      <c r="AGU30" s="0"/>
-      <c r="AGV30" s="0"/>
-      <c r="AGW30" s="0"/>
-      <c r="AGX30" s="0"/>
-      <c r="AGY30" s="0"/>
-      <c r="AGZ30" s="0"/>
-      <c r="AHA30" s="0"/>
-      <c r="AHB30" s="0"/>
-      <c r="AHC30" s="0"/>
-      <c r="AHD30" s="0"/>
-      <c r="AHE30" s="0"/>
-      <c r="AHF30" s="0"/>
-      <c r="AHG30" s="0"/>
-      <c r="AHH30" s="0"/>
-      <c r="AHI30" s="0"/>
-      <c r="AHJ30" s="0"/>
-      <c r="AHK30" s="0"/>
-      <c r="AHL30" s="0"/>
-      <c r="AHM30" s="0"/>
-      <c r="AHN30" s="0"/>
-      <c r="AHO30" s="0"/>
-      <c r="AHP30" s="0"/>
-      <c r="AHQ30" s="0"/>
-      <c r="AHR30" s="0"/>
-      <c r="AHS30" s="0"/>
-      <c r="AHT30" s="0"/>
-      <c r="AHU30" s="0"/>
-      <c r="AHV30" s="0"/>
-      <c r="AHW30" s="0"/>
-      <c r="AHX30" s="0"/>
-      <c r="AHY30" s="0"/>
-      <c r="AHZ30" s="0"/>
-      <c r="AIA30" s="0"/>
-      <c r="AIB30" s="0"/>
-      <c r="AIC30" s="0"/>
-      <c r="AID30" s="0"/>
-      <c r="AIE30" s="0"/>
-      <c r="AIF30" s="0"/>
-      <c r="AIG30" s="0"/>
-      <c r="AIH30" s="0"/>
-      <c r="AII30" s="0"/>
-      <c r="AIJ30" s="0"/>
-      <c r="AIK30" s="0"/>
-      <c r="AIL30" s="0"/>
-      <c r="AIM30" s="0"/>
-      <c r="AIN30" s="0"/>
-      <c r="AIO30" s="0"/>
-      <c r="AIP30" s="0"/>
-      <c r="AIQ30" s="0"/>
-      <c r="AIR30" s="0"/>
-      <c r="AIS30" s="0"/>
-      <c r="AIT30" s="0"/>
-      <c r="AIU30" s="0"/>
-      <c r="AIV30" s="0"/>
-      <c r="AIW30" s="0"/>
-      <c r="AIX30" s="0"/>
-      <c r="AIY30" s="0"/>
-      <c r="AIZ30" s="0"/>
-      <c r="AJA30" s="0"/>
-      <c r="AJB30" s="0"/>
-      <c r="AJC30" s="0"/>
-      <c r="AJD30" s="0"/>
-      <c r="AJE30" s="0"/>
-      <c r="AJF30" s="0"/>
-      <c r="AJG30" s="0"/>
-      <c r="AJH30" s="0"/>
-      <c r="AJI30" s="0"/>
-      <c r="AJJ30" s="0"/>
-      <c r="AJK30" s="0"/>
-      <c r="AJL30" s="0"/>
-      <c r="AJM30" s="0"/>
-      <c r="AJN30" s="0"/>
-      <c r="AJO30" s="0"/>
-      <c r="AJP30" s="0"/>
-      <c r="AJQ30" s="0"/>
-      <c r="AJR30" s="0"/>
-      <c r="AJS30" s="0"/>
-      <c r="AJT30" s="0"/>
-      <c r="AJU30" s="0"/>
-      <c r="AJV30" s="0"/>
-      <c r="AJW30" s="0"/>
-      <c r="AJX30" s="0"/>
-      <c r="AJY30" s="0"/>
-      <c r="AJZ30" s="0"/>
-      <c r="AKA30" s="0"/>
-      <c r="AKB30" s="0"/>
-      <c r="AKC30" s="0"/>
-      <c r="AKD30" s="0"/>
-      <c r="AKE30" s="0"/>
-      <c r="AKF30" s="0"/>
-      <c r="AKG30" s="0"/>
-      <c r="AKH30" s="0"/>
-      <c r="AKI30" s="0"/>
-      <c r="AKJ30" s="0"/>
-      <c r="AKK30" s="0"/>
-      <c r="AKL30" s="0"/>
-      <c r="AKM30" s="0"/>
-      <c r="AKN30" s="0"/>
-      <c r="AKO30" s="0"/>
-      <c r="AKP30" s="0"/>
-      <c r="AKQ30" s="0"/>
-      <c r="AKR30" s="0"/>
-      <c r="AKS30" s="0"/>
-      <c r="AKT30" s="0"/>
-      <c r="AKU30" s="0"/>
-      <c r="AKV30" s="0"/>
-      <c r="AKW30" s="0"/>
-      <c r="AKX30" s="0"/>
-      <c r="AKY30" s="0"/>
-      <c r="AKZ30" s="0"/>
-      <c r="ALA30" s="0"/>
-      <c r="ALB30" s="0"/>
-      <c r="ALC30" s="0"/>
-      <c r="ALD30" s="0"/>
-      <c r="ALE30" s="0"/>
-      <c r="ALF30" s="0"/>
-      <c r="ALG30" s="0"/>
-      <c r="ALH30" s="0"/>
-      <c r="ALI30" s="0"/>
-      <c r="ALJ30" s="0"/>
-      <c r="ALK30" s="0"/>
-      <c r="ALL30" s="0"/>
-      <c r="ALM30" s="0"/>
-      <c r="ALN30" s="0"/>
-      <c r="ALO30" s="0"/>
-      <c r="ALP30" s="0"/>
-      <c r="ALQ30" s="0"/>
-      <c r="ALR30" s="0"/>
-      <c r="ALS30" s="0"/>
-      <c r="ALT30" s="0"/>
-      <c r="ALU30" s="0"/>
-      <c r="ALV30" s="0"/>
-      <c r="ALW30" s="0"/>
-      <c r="ALX30" s="0"/>
-      <c r="ALY30" s="0"/>
-      <c r="ALZ30" s="0"/>
-      <c r="AMA30" s="0"/>
-      <c r="AMB30" s="0"/>
-      <c r="AMC30" s="0"/>
-      <c r="AMD30" s="0"/>
-      <c r="AME30" s="0"/>
-      <c r="AMF30" s="0"/>
-      <c r="AMG30" s="0"/>
-      <c r="AMH30" s="0"/>
-      <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="18" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="D31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="0"/>
       <c r="F31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="16"/>
+      <c r="F32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -6816,726 +5905,1761 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
-    </row>
-    <row r="33" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" s="0"/>
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
+      <c r="AN32" s="0"/>
+      <c r="AO32" s="0"/>
+      <c r="AP32" s="0"/>
+      <c r="AQ32" s="0"/>
+      <c r="AR32" s="0"/>
+      <c r="AS32" s="0"/>
+      <c r="AT32" s="0"/>
+      <c r="AU32" s="0"/>
+      <c r="AV32" s="0"/>
+      <c r="AW32" s="0"/>
+      <c r="AX32" s="0"/>
+      <c r="AY32" s="0"/>
+      <c r="AZ32" s="0"/>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+      <c r="BI32" s="0"/>
+      <c r="BJ32" s="0"/>
+      <c r="BK32" s="0"/>
+      <c r="BL32" s="0"/>
+      <c r="BM32" s="0"/>
+      <c r="BN32" s="0"/>
+      <c r="BO32" s="0"/>
+      <c r="BP32" s="0"/>
+      <c r="BQ32" s="0"/>
+      <c r="BR32" s="0"/>
+      <c r="BS32" s="0"/>
+      <c r="BT32" s="0"/>
+      <c r="BU32" s="0"/>
+      <c r="BV32" s="0"/>
+      <c r="BW32" s="0"/>
+      <c r="BX32" s="0"/>
+      <c r="BY32" s="0"/>
+      <c r="BZ32" s="0"/>
+      <c r="CA32" s="0"/>
+      <c r="CB32" s="0"/>
+      <c r="CC32" s="0"/>
+      <c r="CD32" s="0"/>
+      <c r="CE32" s="0"/>
+      <c r="CF32" s="0"/>
+      <c r="CG32" s="0"/>
+      <c r="CH32" s="0"/>
+      <c r="CI32" s="0"/>
+      <c r="CJ32" s="0"/>
+      <c r="CK32" s="0"/>
+      <c r="CL32" s="0"/>
+      <c r="CM32" s="0"/>
+      <c r="CN32" s="0"/>
+      <c r="CO32" s="0"/>
+      <c r="CP32" s="0"/>
+      <c r="CQ32" s="0"/>
+      <c r="CR32" s="0"/>
+      <c r="CS32" s="0"/>
+      <c r="CT32" s="0"/>
+      <c r="CU32" s="0"/>
+      <c r="CV32" s="0"/>
+      <c r="CW32" s="0"/>
+      <c r="CX32" s="0"/>
+      <c r="CY32" s="0"/>
+      <c r="CZ32" s="0"/>
+      <c r="DA32" s="0"/>
+      <c r="DB32" s="0"/>
+      <c r="DC32" s="0"/>
+      <c r="DD32" s="0"/>
+      <c r="DE32" s="0"/>
+      <c r="DF32" s="0"/>
+      <c r="DG32" s="0"/>
+      <c r="DH32" s="0"/>
+      <c r="DI32" s="0"/>
+      <c r="DJ32" s="0"/>
+      <c r="DK32" s="0"/>
+      <c r="DL32" s="0"/>
+      <c r="DM32" s="0"/>
+      <c r="DN32" s="0"/>
+      <c r="DO32" s="0"/>
+      <c r="DP32" s="0"/>
+      <c r="DQ32" s="0"/>
+      <c r="DR32" s="0"/>
+      <c r="DS32" s="0"/>
+      <c r="DT32" s="0"/>
+      <c r="DU32" s="0"/>
+      <c r="DV32" s="0"/>
+      <c r="DW32" s="0"/>
+      <c r="DX32" s="0"/>
+      <c r="DY32" s="0"/>
+      <c r="DZ32" s="0"/>
+      <c r="EA32" s="0"/>
+      <c r="EB32" s="0"/>
+      <c r="EC32" s="0"/>
+      <c r="ED32" s="0"/>
+      <c r="EE32" s="0"/>
+      <c r="EF32" s="0"/>
+      <c r="EG32" s="0"/>
+      <c r="EH32" s="0"/>
+      <c r="EI32" s="0"/>
+      <c r="EJ32" s="0"/>
+      <c r="EK32" s="0"/>
+      <c r="EL32" s="0"/>
+      <c r="EM32" s="0"/>
+      <c r="EN32" s="0"/>
+      <c r="EO32" s="0"/>
+      <c r="EP32" s="0"/>
+      <c r="EQ32" s="0"/>
+      <c r="ER32" s="0"/>
+      <c r="ES32" s="0"/>
+      <c r="ET32" s="0"/>
+      <c r="EU32" s="0"/>
+      <c r="EV32" s="0"/>
+      <c r="EW32" s="0"/>
+      <c r="EX32" s="0"/>
+      <c r="EY32" s="0"/>
+      <c r="EZ32" s="0"/>
+      <c r="FA32" s="0"/>
+      <c r="FB32" s="0"/>
+      <c r="FC32" s="0"/>
+      <c r="FD32" s="0"/>
+      <c r="FE32" s="0"/>
+      <c r="FF32" s="0"/>
+      <c r="FG32" s="0"/>
+      <c r="FH32" s="0"/>
+      <c r="FI32" s="0"/>
+      <c r="FJ32" s="0"/>
+      <c r="FK32" s="0"/>
+      <c r="FL32" s="0"/>
+      <c r="FM32" s="0"/>
+      <c r="FN32" s="0"/>
+      <c r="FO32" s="0"/>
+      <c r="FP32" s="0"/>
+      <c r="FQ32" s="0"/>
+      <c r="FR32" s="0"/>
+      <c r="FS32" s="0"/>
+      <c r="FT32" s="0"/>
+      <c r="FU32" s="0"/>
+      <c r="FV32" s="0"/>
+      <c r="FW32" s="0"/>
+      <c r="FX32" s="0"/>
+      <c r="FY32" s="0"/>
+      <c r="FZ32" s="0"/>
+      <c r="GA32" s="0"/>
+      <c r="GB32" s="0"/>
+      <c r="GC32" s="0"/>
+      <c r="GD32" s="0"/>
+      <c r="GE32" s="0"/>
+      <c r="GF32" s="0"/>
+      <c r="GG32" s="0"/>
+      <c r="GH32" s="0"/>
+      <c r="GI32" s="0"/>
+      <c r="GJ32" s="0"/>
+      <c r="GK32" s="0"/>
+      <c r="GL32" s="0"/>
+      <c r="GM32" s="0"/>
+      <c r="GN32" s="0"/>
+      <c r="GO32" s="0"/>
+      <c r="GP32" s="0"/>
+      <c r="GQ32" s="0"/>
+      <c r="GR32" s="0"/>
+      <c r="GS32" s="0"/>
+      <c r="GT32" s="0"/>
+      <c r="GU32" s="0"/>
+      <c r="GV32" s="0"/>
+      <c r="GW32" s="0"/>
+      <c r="GX32" s="0"/>
+      <c r="GY32" s="0"/>
+      <c r="GZ32" s="0"/>
+      <c r="HA32" s="0"/>
+      <c r="HB32" s="0"/>
+      <c r="HC32" s="0"/>
+      <c r="HD32" s="0"/>
+      <c r="HE32" s="0"/>
+      <c r="HF32" s="0"/>
+      <c r="HG32" s="0"/>
+      <c r="HH32" s="0"/>
+      <c r="HI32" s="0"/>
+      <c r="HJ32" s="0"/>
+      <c r="HK32" s="0"/>
+      <c r="HL32" s="0"/>
+      <c r="HM32" s="0"/>
+      <c r="HN32" s="0"/>
+      <c r="HO32" s="0"/>
+      <c r="HP32" s="0"/>
+      <c r="HQ32" s="0"/>
+      <c r="HR32" s="0"/>
+      <c r="HS32" s="0"/>
+      <c r="HT32" s="0"/>
+      <c r="HU32" s="0"/>
+      <c r="HV32" s="0"/>
+      <c r="HW32" s="0"/>
+      <c r="HX32" s="0"/>
+      <c r="HY32" s="0"/>
+      <c r="HZ32" s="0"/>
+      <c r="IA32" s="0"/>
+      <c r="IB32" s="0"/>
+      <c r="IC32" s="0"/>
+      <c r="ID32" s="0"/>
+      <c r="IE32" s="0"/>
+      <c r="IF32" s="0"/>
+      <c r="IG32" s="0"/>
+      <c r="IH32" s="0"/>
+      <c r="II32" s="0"/>
+      <c r="IJ32" s="0"/>
+      <c r="IK32" s="0"/>
+      <c r="IL32" s="0"/>
+      <c r="IM32" s="0"/>
+      <c r="IN32" s="0"/>
+      <c r="IO32" s="0"/>
+      <c r="IP32" s="0"/>
+      <c r="IQ32" s="0"/>
+      <c r="IR32" s="0"/>
+      <c r="IS32" s="0"/>
+      <c r="IT32" s="0"/>
+      <c r="IU32" s="0"/>
+      <c r="IV32" s="0"/>
+      <c r="IW32" s="0"/>
+      <c r="IX32" s="0"/>
+      <c r="IY32" s="0"/>
+      <c r="IZ32" s="0"/>
+      <c r="JA32" s="0"/>
+      <c r="JB32" s="0"/>
+      <c r="JC32" s="0"/>
+      <c r="JD32" s="0"/>
+      <c r="JE32" s="0"/>
+      <c r="JF32" s="0"/>
+      <c r="JG32" s="0"/>
+      <c r="JH32" s="0"/>
+      <c r="JI32" s="0"/>
+      <c r="JJ32" s="0"/>
+      <c r="JK32" s="0"/>
+      <c r="JL32" s="0"/>
+      <c r="JM32" s="0"/>
+      <c r="JN32" s="0"/>
+      <c r="JO32" s="0"/>
+      <c r="JP32" s="0"/>
+      <c r="JQ32" s="0"/>
+      <c r="JR32" s="0"/>
+      <c r="JS32" s="0"/>
+      <c r="JT32" s="0"/>
+      <c r="JU32" s="0"/>
+      <c r="JV32" s="0"/>
+      <c r="JW32" s="0"/>
+      <c r="JX32" s="0"/>
+      <c r="JY32" s="0"/>
+      <c r="JZ32" s="0"/>
+      <c r="KA32" s="0"/>
+      <c r="KB32" s="0"/>
+      <c r="KC32" s="0"/>
+      <c r="KD32" s="0"/>
+      <c r="KE32" s="0"/>
+      <c r="KF32" s="0"/>
+      <c r="KG32" s="0"/>
+      <c r="KH32" s="0"/>
+      <c r="KI32" s="0"/>
+      <c r="KJ32" s="0"/>
+      <c r="KK32" s="0"/>
+      <c r="KL32" s="0"/>
+      <c r="KM32" s="0"/>
+      <c r="KN32" s="0"/>
+      <c r="KO32" s="0"/>
+      <c r="KP32" s="0"/>
+      <c r="KQ32" s="0"/>
+      <c r="KR32" s="0"/>
+      <c r="KS32" s="0"/>
+      <c r="KT32" s="0"/>
+      <c r="KU32" s="0"/>
+      <c r="KV32" s="0"/>
+      <c r="KW32" s="0"/>
+      <c r="KX32" s="0"/>
+      <c r="KY32" s="0"/>
+      <c r="KZ32" s="0"/>
+      <c r="LA32" s="0"/>
+      <c r="LB32" s="0"/>
+      <c r="LC32" s="0"/>
+      <c r="LD32" s="0"/>
+      <c r="LE32" s="0"/>
+      <c r="LF32" s="0"/>
+      <c r="LG32" s="0"/>
+      <c r="LH32" s="0"/>
+      <c r="LI32" s="0"/>
+      <c r="LJ32" s="0"/>
+      <c r="LK32" s="0"/>
+      <c r="LL32" s="0"/>
+      <c r="LM32" s="0"/>
+      <c r="LN32" s="0"/>
+      <c r="LO32" s="0"/>
+      <c r="LP32" s="0"/>
+      <c r="LQ32" s="0"/>
+      <c r="LR32" s="0"/>
+      <c r="LS32" s="0"/>
+      <c r="LT32" s="0"/>
+      <c r="LU32" s="0"/>
+      <c r="LV32" s="0"/>
+      <c r="LW32" s="0"/>
+      <c r="LX32" s="0"/>
+      <c r="LY32" s="0"/>
+      <c r="LZ32" s="0"/>
+      <c r="MA32" s="0"/>
+      <c r="MB32" s="0"/>
+      <c r="MC32" s="0"/>
+      <c r="MD32" s="0"/>
+      <c r="ME32" s="0"/>
+      <c r="MF32" s="0"/>
+      <c r="MG32" s="0"/>
+      <c r="MH32" s="0"/>
+      <c r="MI32" s="0"/>
+      <c r="MJ32" s="0"/>
+      <c r="MK32" s="0"/>
+      <c r="ML32" s="0"/>
+      <c r="MM32" s="0"/>
+      <c r="MN32" s="0"/>
+      <c r="MO32" s="0"/>
+      <c r="MP32" s="0"/>
+      <c r="MQ32" s="0"/>
+      <c r="MR32" s="0"/>
+      <c r="MS32" s="0"/>
+      <c r="MT32" s="0"/>
+      <c r="MU32" s="0"/>
+      <c r="MV32" s="0"/>
+      <c r="MW32" s="0"/>
+      <c r="MX32" s="0"/>
+      <c r="MY32" s="0"/>
+      <c r="MZ32" s="0"/>
+      <c r="NA32" s="0"/>
+      <c r="NB32" s="0"/>
+      <c r="NC32" s="0"/>
+      <c r="ND32" s="0"/>
+      <c r="NE32" s="0"/>
+      <c r="NF32" s="0"/>
+      <c r="NG32" s="0"/>
+      <c r="NH32" s="0"/>
+      <c r="NI32" s="0"/>
+      <c r="NJ32" s="0"/>
+      <c r="NK32" s="0"/>
+      <c r="NL32" s="0"/>
+      <c r="NM32" s="0"/>
+      <c r="NN32" s="0"/>
+      <c r="NO32" s="0"/>
+      <c r="NP32" s="0"/>
+      <c r="NQ32" s="0"/>
+      <c r="NR32" s="0"/>
+      <c r="NS32" s="0"/>
+      <c r="NT32" s="0"/>
+      <c r="NU32" s="0"/>
+      <c r="NV32" s="0"/>
+      <c r="NW32" s="0"/>
+      <c r="NX32" s="0"/>
+      <c r="NY32" s="0"/>
+      <c r="NZ32" s="0"/>
+      <c r="OA32" s="0"/>
+      <c r="OB32" s="0"/>
+      <c r="OC32" s="0"/>
+      <c r="OD32" s="0"/>
+      <c r="OE32" s="0"/>
+      <c r="OF32" s="0"/>
+      <c r="OG32" s="0"/>
+      <c r="OH32" s="0"/>
+      <c r="OI32" s="0"/>
+      <c r="OJ32" s="0"/>
+      <c r="OK32" s="0"/>
+      <c r="OL32" s="0"/>
+      <c r="OM32" s="0"/>
+      <c r="ON32" s="0"/>
+      <c r="OO32" s="0"/>
+      <c r="OP32" s="0"/>
+      <c r="OQ32" s="0"/>
+      <c r="OR32" s="0"/>
+      <c r="OS32" s="0"/>
+      <c r="OT32" s="0"/>
+      <c r="OU32" s="0"/>
+      <c r="OV32" s="0"/>
+      <c r="OW32" s="0"/>
+      <c r="OX32" s="0"/>
+      <c r="OY32" s="0"/>
+      <c r="OZ32" s="0"/>
+      <c r="PA32" s="0"/>
+      <c r="PB32" s="0"/>
+      <c r="PC32" s="0"/>
+      <c r="PD32" s="0"/>
+      <c r="PE32" s="0"/>
+      <c r="PF32" s="0"/>
+      <c r="PG32" s="0"/>
+      <c r="PH32" s="0"/>
+      <c r="PI32" s="0"/>
+      <c r="PJ32" s="0"/>
+      <c r="PK32" s="0"/>
+      <c r="PL32" s="0"/>
+      <c r="PM32" s="0"/>
+      <c r="PN32" s="0"/>
+      <c r="PO32" s="0"/>
+      <c r="PP32" s="0"/>
+      <c r="PQ32" s="0"/>
+      <c r="PR32" s="0"/>
+      <c r="PS32" s="0"/>
+      <c r="PT32" s="0"/>
+      <c r="PU32" s="0"/>
+      <c r="PV32" s="0"/>
+      <c r="PW32" s="0"/>
+      <c r="PX32" s="0"/>
+      <c r="PY32" s="0"/>
+      <c r="PZ32" s="0"/>
+      <c r="QA32" s="0"/>
+      <c r="QB32" s="0"/>
+      <c r="QC32" s="0"/>
+      <c r="QD32" s="0"/>
+      <c r="QE32" s="0"/>
+      <c r="QF32" s="0"/>
+      <c r="QG32" s="0"/>
+      <c r="QH32" s="0"/>
+      <c r="QI32" s="0"/>
+      <c r="QJ32" s="0"/>
+      <c r="QK32" s="0"/>
+      <c r="QL32" s="0"/>
+      <c r="QM32" s="0"/>
+      <c r="QN32" s="0"/>
+      <c r="QO32" s="0"/>
+      <c r="QP32" s="0"/>
+      <c r="QQ32" s="0"/>
+      <c r="QR32" s="0"/>
+      <c r="QS32" s="0"/>
+      <c r="QT32" s="0"/>
+      <c r="QU32" s="0"/>
+      <c r="QV32" s="0"/>
+      <c r="QW32" s="0"/>
+      <c r="QX32" s="0"/>
+      <c r="QY32" s="0"/>
+      <c r="QZ32" s="0"/>
+      <c r="RA32" s="0"/>
+      <c r="RB32" s="0"/>
+      <c r="RC32" s="0"/>
+      <c r="RD32" s="0"/>
+      <c r="RE32" s="0"/>
+      <c r="RF32" s="0"/>
+      <c r="RG32" s="0"/>
+      <c r="RH32" s="0"/>
+      <c r="RI32" s="0"/>
+      <c r="RJ32" s="0"/>
+      <c r="RK32" s="0"/>
+      <c r="RL32" s="0"/>
+      <c r="RM32" s="0"/>
+      <c r="RN32" s="0"/>
+      <c r="RO32" s="0"/>
+      <c r="RP32" s="0"/>
+      <c r="RQ32" s="0"/>
+      <c r="RR32" s="0"/>
+      <c r="RS32" s="0"/>
+      <c r="RT32" s="0"/>
+      <c r="RU32" s="0"/>
+      <c r="RV32" s="0"/>
+      <c r="RW32" s="0"/>
+      <c r="RX32" s="0"/>
+      <c r="RY32" s="0"/>
+      <c r="RZ32" s="0"/>
+      <c r="SA32" s="0"/>
+      <c r="SB32" s="0"/>
+      <c r="SC32" s="0"/>
+      <c r="SD32" s="0"/>
+      <c r="SE32" s="0"/>
+      <c r="SF32" s="0"/>
+      <c r="SG32" s="0"/>
+      <c r="SH32" s="0"/>
+      <c r="SI32" s="0"/>
+      <c r="SJ32" s="0"/>
+      <c r="SK32" s="0"/>
+      <c r="SL32" s="0"/>
+      <c r="SM32" s="0"/>
+      <c r="SN32" s="0"/>
+      <c r="SO32" s="0"/>
+      <c r="SP32" s="0"/>
+      <c r="SQ32" s="0"/>
+      <c r="SR32" s="0"/>
+      <c r="SS32" s="0"/>
+      <c r="ST32" s="0"/>
+      <c r="SU32" s="0"/>
+      <c r="SV32" s="0"/>
+      <c r="SW32" s="0"/>
+      <c r="SX32" s="0"/>
+      <c r="SY32" s="0"/>
+      <c r="SZ32" s="0"/>
+      <c r="TA32" s="0"/>
+      <c r="TB32" s="0"/>
+      <c r="TC32" s="0"/>
+      <c r="TD32" s="0"/>
+      <c r="TE32" s="0"/>
+      <c r="TF32" s="0"/>
+      <c r="TG32" s="0"/>
+      <c r="TH32" s="0"/>
+      <c r="TI32" s="0"/>
+      <c r="TJ32" s="0"/>
+      <c r="TK32" s="0"/>
+      <c r="TL32" s="0"/>
+      <c r="TM32" s="0"/>
+      <c r="TN32" s="0"/>
+      <c r="TO32" s="0"/>
+      <c r="TP32" s="0"/>
+      <c r="TQ32" s="0"/>
+      <c r="TR32" s="0"/>
+      <c r="TS32" s="0"/>
+      <c r="TT32" s="0"/>
+      <c r="TU32" s="0"/>
+      <c r="TV32" s="0"/>
+      <c r="TW32" s="0"/>
+      <c r="TX32" s="0"/>
+      <c r="TY32" s="0"/>
+      <c r="TZ32" s="0"/>
+      <c r="UA32" s="0"/>
+      <c r="UB32" s="0"/>
+      <c r="UC32" s="0"/>
+      <c r="UD32" s="0"/>
+      <c r="UE32" s="0"/>
+      <c r="UF32" s="0"/>
+      <c r="UG32" s="0"/>
+      <c r="UH32" s="0"/>
+      <c r="UI32" s="0"/>
+      <c r="UJ32" s="0"/>
+      <c r="UK32" s="0"/>
+      <c r="UL32" s="0"/>
+      <c r="UM32" s="0"/>
+      <c r="UN32" s="0"/>
+      <c r="UO32" s="0"/>
+      <c r="UP32" s="0"/>
+      <c r="UQ32" s="0"/>
+      <c r="UR32" s="0"/>
+      <c r="US32" s="0"/>
+      <c r="UT32" s="0"/>
+      <c r="UU32" s="0"/>
+      <c r="UV32" s="0"/>
+      <c r="UW32" s="0"/>
+      <c r="UX32" s="0"/>
+      <c r="UY32" s="0"/>
+      <c r="UZ32" s="0"/>
+      <c r="VA32" s="0"/>
+      <c r="VB32" s="0"/>
+      <c r="VC32" s="0"/>
+      <c r="VD32" s="0"/>
+      <c r="VE32" s="0"/>
+      <c r="VF32" s="0"/>
+      <c r="VG32" s="0"/>
+      <c r="VH32" s="0"/>
+      <c r="VI32" s="0"/>
+      <c r="VJ32" s="0"/>
+      <c r="VK32" s="0"/>
+      <c r="VL32" s="0"/>
+      <c r="VM32" s="0"/>
+      <c r="VN32" s="0"/>
+      <c r="VO32" s="0"/>
+      <c r="VP32" s="0"/>
+      <c r="VQ32" s="0"/>
+      <c r="VR32" s="0"/>
+      <c r="VS32" s="0"/>
+      <c r="VT32" s="0"/>
+      <c r="VU32" s="0"/>
+      <c r="VV32" s="0"/>
+      <c r="VW32" s="0"/>
+      <c r="VX32" s="0"/>
+      <c r="VY32" s="0"/>
+      <c r="VZ32" s="0"/>
+      <c r="WA32" s="0"/>
+      <c r="WB32" s="0"/>
+      <c r="WC32" s="0"/>
+      <c r="WD32" s="0"/>
+      <c r="WE32" s="0"/>
+      <c r="WF32" s="0"/>
+      <c r="WG32" s="0"/>
+      <c r="WH32" s="0"/>
+      <c r="WI32" s="0"/>
+      <c r="WJ32" s="0"/>
+      <c r="WK32" s="0"/>
+      <c r="WL32" s="0"/>
+      <c r="WM32" s="0"/>
+      <c r="WN32" s="0"/>
+      <c r="WO32" s="0"/>
+      <c r="WP32" s="0"/>
+      <c r="WQ32" s="0"/>
+      <c r="WR32" s="0"/>
+      <c r="WS32" s="0"/>
+      <c r="WT32" s="0"/>
+      <c r="WU32" s="0"/>
+      <c r="WV32" s="0"/>
+      <c r="WW32" s="0"/>
+      <c r="WX32" s="0"/>
+      <c r="WY32" s="0"/>
+      <c r="WZ32" s="0"/>
+      <c r="XA32" s="0"/>
+      <c r="XB32" s="0"/>
+      <c r="XC32" s="0"/>
+      <c r="XD32" s="0"/>
+      <c r="XE32" s="0"/>
+      <c r="XF32" s="0"/>
+      <c r="XG32" s="0"/>
+      <c r="XH32" s="0"/>
+      <c r="XI32" s="0"/>
+      <c r="XJ32" s="0"/>
+      <c r="XK32" s="0"/>
+      <c r="XL32" s="0"/>
+      <c r="XM32" s="0"/>
+      <c r="XN32" s="0"/>
+      <c r="XO32" s="0"/>
+      <c r="XP32" s="0"/>
+      <c r="XQ32" s="0"/>
+      <c r="XR32" s="0"/>
+      <c r="XS32" s="0"/>
+      <c r="XT32" s="0"/>
+      <c r="XU32" s="0"/>
+      <c r="XV32" s="0"/>
+      <c r="XW32" s="0"/>
+      <c r="XX32" s="0"/>
+      <c r="XY32" s="0"/>
+      <c r="XZ32" s="0"/>
+      <c r="YA32" s="0"/>
+      <c r="YB32" s="0"/>
+      <c r="YC32" s="0"/>
+      <c r="YD32" s="0"/>
+      <c r="YE32" s="0"/>
+      <c r="YF32" s="0"/>
+      <c r="YG32" s="0"/>
+      <c r="YH32" s="0"/>
+      <c r="YI32" s="0"/>
+      <c r="YJ32" s="0"/>
+      <c r="YK32" s="0"/>
+      <c r="YL32" s="0"/>
+      <c r="YM32" s="0"/>
+      <c r="YN32" s="0"/>
+      <c r="YO32" s="0"/>
+      <c r="YP32" s="0"/>
+      <c r="YQ32" s="0"/>
+      <c r="YR32" s="0"/>
+      <c r="YS32" s="0"/>
+      <c r="YT32" s="0"/>
+      <c r="YU32" s="0"/>
+      <c r="YV32" s="0"/>
+      <c r="YW32" s="0"/>
+      <c r="YX32" s="0"/>
+      <c r="YY32" s="0"/>
+      <c r="YZ32" s="0"/>
+      <c r="ZA32" s="0"/>
+      <c r="ZB32" s="0"/>
+      <c r="ZC32" s="0"/>
+      <c r="ZD32" s="0"/>
+      <c r="ZE32" s="0"/>
+      <c r="ZF32" s="0"/>
+      <c r="ZG32" s="0"/>
+      <c r="ZH32" s="0"/>
+      <c r="ZI32" s="0"/>
+      <c r="ZJ32" s="0"/>
+      <c r="ZK32" s="0"/>
+      <c r="ZL32" s="0"/>
+      <c r="ZM32" s="0"/>
+      <c r="ZN32" s="0"/>
+      <c r="ZO32" s="0"/>
+      <c r="ZP32" s="0"/>
+      <c r="ZQ32" s="0"/>
+      <c r="ZR32" s="0"/>
+      <c r="ZS32" s="0"/>
+      <c r="ZT32" s="0"/>
+      <c r="ZU32" s="0"/>
+      <c r="ZV32" s="0"/>
+      <c r="ZW32" s="0"/>
+      <c r="ZX32" s="0"/>
+      <c r="ZY32" s="0"/>
+      <c r="ZZ32" s="0"/>
+      <c r="AAA32" s="0"/>
+      <c r="AAB32" s="0"/>
+      <c r="AAC32" s="0"/>
+      <c r="AAD32" s="0"/>
+      <c r="AAE32" s="0"/>
+      <c r="AAF32" s="0"/>
+      <c r="AAG32" s="0"/>
+      <c r="AAH32" s="0"/>
+      <c r="AAI32" s="0"/>
+      <c r="AAJ32" s="0"/>
+      <c r="AAK32" s="0"/>
+      <c r="AAL32" s="0"/>
+      <c r="AAM32" s="0"/>
+      <c r="AAN32" s="0"/>
+      <c r="AAO32" s="0"/>
+      <c r="AAP32" s="0"/>
+      <c r="AAQ32" s="0"/>
+      <c r="AAR32" s="0"/>
+      <c r="AAS32" s="0"/>
+      <c r="AAT32" s="0"/>
+      <c r="AAU32" s="0"/>
+      <c r="AAV32" s="0"/>
+      <c r="AAW32" s="0"/>
+      <c r="AAX32" s="0"/>
+      <c r="AAY32" s="0"/>
+      <c r="AAZ32" s="0"/>
+      <c r="ABA32" s="0"/>
+      <c r="ABB32" s="0"/>
+      <c r="ABC32" s="0"/>
+      <c r="ABD32" s="0"/>
+      <c r="ABE32" s="0"/>
+      <c r="ABF32" s="0"/>
+      <c r="ABG32" s="0"/>
+      <c r="ABH32" s="0"/>
+      <c r="ABI32" s="0"/>
+      <c r="ABJ32" s="0"/>
+      <c r="ABK32" s="0"/>
+      <c r="ABL32" s="0"/>
+      <c r="ABM32" s="0"/>
+      <c r="ABN32" s="0"/>
+      <c r="ABO32" s="0"/>
+      <c r="ABP32" s="0"/>
+      <c r="ABQ32" s="0"/>
+      <c r="ABR32" s="0"/>
+      <c r="ABS32" s="0"/>
+      <c r="ABT32" s="0"/>
+      <c r="ABU32" s="0"/>
+      <c r="ABV32" s="0"/>
+      <c r="ABW32" s="0"/>
+      <c r="ABX32" s="0"/>
+      <c r="ABY32" s="0"/>
+      <c r="ABZ32" s="0"/>
+      <c r="ACA32" s="0"/>
+      <c r="ACB32" s="0"/>
+      <c r="ACC32" s="0"/>
+      <c r="ACD32" s="0"/>
+      <c r="ACE32" s="0"/>
+      <c r="ACF32" s="0"/>
+      <c r="ACG32" s="0"/>
+      <c r="ACH32" s="0"/>
+      <c r="ACI32" s="0"/>
+      <c r="ACJ32" s="0"/>
+      <c r="ACK32" s="0"/>
+      <c r="ACL32" s="0"/>
+      <c r="ACM32" s="0"/>
+      <c r="ACN32" s="0"/>
+      <c r="ACO32" s="0"/>
+      <c r="ACP32" s="0"/>
+      <c r="ACQ32" s="0"/>
+      <c r="ACR32" s="0"/>
+      <c r="ACS32" s="0"/>
+      <c r="ACT32" s="0"/>
+      <c r="ACU32" s="0"/>
+      <c r="ACV32" s="0"/>
+      <c r="ACW32" s="0"/>
+      <c r="ACX32" s="0"/>
+      <c r="ACY32" s="0"/>
+      <c r="ACZ32" s="0"/>
+      <c r="ADA32" s="0"/>
+      <c r="ADB32" s="0"/>
+      <c r="ADC32" s="0"/>
+      <c r="ADD32" s="0"/>
+      <c r="ADE32" s="0"/>
+      <c r="ADF32" s="0"/>
+      <c r="ADG32" s="0"/>
+      <c r="ADH32" s="0"/>
+      <c r="ADI32" s="0"/>
+      <c r="ADJ32" s="0"/>
+      <c r="ADK32" s="0"/>
+      <c r="ADL32" s="0"/>
+      <c r="ADM32" s="0"/>
+      <c r="ADN32" s="0"/>
+      <c r="ADO32" s="0"/>
+      <c r="ADP32" s="0"/>
+      <c r="ADQ32" s="0"/>
+      <c r="ADR32" s="0"/>
+      <c r="ADS32" s="0"/>
+      <c r="ADT32" s="0"/>
+      <c r="ADU32" s="0"/>
+      <c r="ADV32" s="0"/>
+      <c r="ADW32" s="0"/>
+      <c r="ADX32" s="0"/>
+      <c r="ADY32" s="0"/>
+      <c r="ADZ32" s="0"/>
+      <c r="AEA32" s="0"/>
+      <c r="AEB32" s="0"/>
+      <c r="AEC32" s="0"/>
+      <c r="AED32" s="0"/>
+      <c r="AEE32" s="0"/>
+      <c r="AEF32" s="0"/>
+      <c r="AEG32" s="0"/>
+      <c r="AEH32" s="0"/>
+      <c r="AEI32" s="0"/>
+      <c r="AEJ32" s="0"/>
+      <c r="AEK32" s="0"/>
+      <c r="AEL32" s="0"/>
+      <c r="AEM32" s="0"/>
+      <c r="AEN32" s="0"/>
+      <c r="AEO32" s="0"/>
+      <c r="AEP32" s="0"/>
+      <c r="AEQ32" s="0"/>
+      <c r="AER32" s="0"/>
+      <c r="AES32" s="0"/>
+      <c r="AET32" s="0"/>
+      <c r="AEU32" s="0"/>
+      <c r="AEV32" s="0"/>
+      <c r="AEW32" s="0"/>
+      <c r="AEX32" s="0"/>
+      <c r="AEY32" s="0"/>
+      <c r="AEZ32" s="0"/>
+      <c r="AFA32" s="0"/>
+      <c r="AFB32" s="0"/>
+      <c r="AFC32" s="0"/>
+      <c r="AFD32" s="0"/>
+      <c r="AFE32" s="0"/>
+      <c r="AFF32" s="0"/>
+      <c r="AFG32" s="0"/>
+      <c r="AFH32" s="0"/>
+      <c r="AFI32" s="0"/>
+      <c r="AFJ32" s="0"/>
+      <c r="AFK32" s="0"/>
+      <c r="AFL32" s="0"/>
+      <c r="AFM32" s="0"/>
+      <c r="AFN32" s="0"/>
+      <c r="AFO32" s="0"/>
+      <c r="AFP32" s="0"/>
+      <c r="AFQ32" s="0"/>
+      <c r="AFR32" s="0"/>
+      <c r="AFS32" s="0"/>
+      <c r="AFT32" s="0"/>
+      <c r="AFU32" s="0"/>
+      <c r="AFV32" s="0"/>
+      <c r="AFW32" s="0"/>
+      <c r="AFX32" s="0"/>
+      <c r="AFY32" s="0"/>
+      <c r="AFZ32" s="0"/>
+      <c r="AGA32" s="0"/>
+      <c r="AGB32" s="0"/>
+      <c r="AGC32" s="0"/>
+      <c r="AGD32" s="0"/>
+      <c r="AGE32" s="0"/>
+      <c r="AGF32" s="0"/>
+      <c r="AGG32" s="0"/>
+      <c r="AGH32" s="0"/>
+      <c r="AGI32" s="0"/>
+      <c r="AGJ32" s="0"/>
+      <c r="AGK32" s="0"/>
+      <c r="AGL32" s="0"/>
+      <c r="AGM32" s="0"/>
+      <c r="AGN32" s="0"/>
+      <c r="AGO32" s="0"/>
+      <c r="AGP32" s="0"/>
+      <c r="AGQ32" s="0"/>
+      <c r="AGR32" s="0"/>
+      <c r="AGS32" s="0"/>
+      <c r="AGT32" s="0"/>
+      <c r="AGU32" s="0"/>
+      <c r="AGV32" s="0"/>
+      <c r="AGW32" s="0"/>
+      <c r="AGX32" s="0"/>
+      <c r="AGY32" s="0"/>
+      <c r="AGZ32" s="0"/>
+      <c r="AHA32" s="0"/>
+      <c r="AHB32" s="0"/>
+      <c r="AHC32" s="0"/>
+      <c r="AHD32" s="0"/>
+      <c r="AHE32" s="0"/>
+      <c r="AHF32" s="0"/>
+      <c r="AHG32" s="0"/>
+      <c r="AHH32" s="0"/>
+      <c r="AHI32" s="0"/>
+      <c r="AHJ32" s="0"/>
+      <c r="AHK32" s="0"/>
+      <c r="AHL32" s="0"/>
+      <c r="AHM32" s="0"/>
+      <c r="AHN32" s="0"/>
+      <c r="AHO32" s="0"/>
+      <c r="AHP32" s="0"/>
+      <c r="AHQ32" s="0"/>
+      <c r="AHR32" s="0"/>
+      <c r="AHS32" s="0"/>
+      <c r="AHT32" s="0"/>
+      <c r="AHU32" s="0"/>
+      <c r="AHV32" s="0"/>
+      <c r="AHW32" s="0"/>
+      <c r="AHX32" s="0"/>
+      <c r="AHY32" s="0"/>
+      <c r="AHZ32" s="0"/>
+      <c r="AIA32" s="0"/>
+      <c r="AIB32" s="0"/>
+      <c r="AIC32" s="0"/>
+      <c r="AID32" s="0"/>
+      <c r="AIE32" s="0"/>
+      <c r="AIF32" s="0"/>
+      <c r="AIG32" s="0"/>
+      <c r="AIH32" s="0"/>
+      <c r="AII32" s="0"/>
+      <c r="AIJ32" s="0"/>
+      <c r="AIK32" s="0"/>
+      <c r="AIL32" s="0"/>
+      <c r="AIM32" s="0"/>
+      <c r="AIN32" s="0"/>
+      <c r="AIO32" s="0"/>
+      <c r="AIP32" s="0"/>
+      <c r="AIQ32" s="0"/>
+      <c r="AIR32" s="0"/>
+      <c r="AIS32" s="0"/>
+      <c r="AIT32" s="0"/>
+      <c r="AIU32" s="0"/>
+      <c r="AIV32" s="0"/>
+      <c r="AIW32" s="0"/>
+      <c r="AIX32" s="0"/>
+      <c r="AIY32" s="0"/>
+      <c r="AIZ32" s="0"/>
+      <c r="AJA32" s="0"/>
+      <c r="AJB32" s="0"/>
+      <c r="AJC32" s="0"/>
+      <c r="AJD32" s="0"/>
+      <c r="AJE32" s="0"/>
+      <c r="AJF32" s="0"/>
+      <c r="AJG32" s="0"/>
+      <c r="AJH32" s="0"/>
+      <c r="AJI32" s="0"/>
+      <c r="AJJ32" s="0"/>
+      <c r="AJK32" s="0"/>
+      <c r="AJL32" s="0"/>
+      <c r="AJM32" s="0"/>
+      <c r="AJN32" s="0"/>
+      <c r="AJO32" s="0"/>
+      <c r="AJP32" s="0"/>
+      <c r="AJQ32" s="0"/>
+      <c r="AJR32" s="0"/>
+      <c r="AJS32" s="0"/>
+      <c r="AJT32" s="0"/>
+      <c r="AJU32" s="0"/>
+      <c r="AJV32" s="0"/>
+      <c r="AJW32" s="0"/>
+      <c r="AJX32" s="0"/>
+      <c r="AJY32" s="0"/>
+      <c r="AJZ32" s="0"/>
+      <c r="AKA32" s="0"/>
+      <c r="AKB32" s="0"/>
+      <c r="AKC32" s="0"/>
+      <c r="AKD32" s="0"/>
+      <c r="AKE32" s="0"/>
+      <c r="AKF32" s="0"/>
+      <c r="AKG32" s="0"/>
+      <c r="AKH32" s="0"/>
+      <c r="AKI32" s="0"/>
+      <c r="AKJ32" s="0"/>
+      <c r="AKK32" s="0"/>
+      <c r="AKL32" s="0"/>
+      <c r="AKM32" s="0"/>
+      <c r="AKN32" s="0"/>
+      <c r="AKO32" s="0"/>
+      <c r="AKP32" s="0"/>
+      <c r="AKQ32" s="0"/>
+      <c r="AKR32" s="0"/>
+      <c r="AKS32" s="0"/>
+      <c r="AKT32" s="0"/>
+      <c r="AKU32" s="0"/>
+      <c r="AKV32" s="0"/>
+      <c r="AKW32" s="0"/>
+      <c r="AKX32" s="0"/>
+      <c r="AKY32" s="0"/>
+      <c r="AKZ32" s="0"/>
+      <c r="ALA32" s="0"/>
+      <c r="ALB32" s="0"/>
+      <c r="ALC32" s="0"/>
+      <c r="ALD32" s="0"/>
+      <c r="ALE32" s="0"/>
+      <c r="ALF32" s="0"/>
+      <c r="ALG32" s="0"/>
+      <c r="ALH32" s="0"/>
+      <c r="ALI32" s="0"/>
+      <c r="ALJ32" s="0"/>
+      <c r="ALK32" s="0"/>
+      <c r="ALL32" s="0"/>
+      <c r="ALM32" s="0"/>
+      <c r="ALN32" s="0"/>
+      <c r="ALO32" s="0"/>
+      <c r="ALP32" s="0"/>
+      <c r="ALQ32" s="0"/>
+      <c r="ALR32" s="0"/>
+      <c r="ALS32" s="0"/>
+      <c r="ALT32" s="0"/>
+      <c r="ALU32" s="0"/>
+      <c r="ALV32" s="0"/>
+      <c r="ALW32" s="0"/>
+      <c r="ALX32" s="0"/>
+      <c r="ALY32" s="0"/>
+      <c r="ALZ32" s="0"/>
+      <c r="AMA32" s="0"/>
+      <c r="AMB32" s="0"/>
+      <c r="AMC32" s="0"/>
+      <c r="AMD32" s="0"/>
+      <c r="AME32" s="0"/>
+      <c r="AMF32" s="0"/>
+      <c r="AMG32" s="0"/>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="16" t="s">
+      <c r="B35" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="242.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="21" t="s">
         <v>87</v>
       </c>
+      <c r="C36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="242.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="18" t="s">
         <v>94</v>
       </c>
+      <c r="D38" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="16" t="s">
+      <c r="B43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="s">
+    <row r="44" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="B44" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="22" t="s">
         <v>107</v>
       </c>
+      <c r="C44" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="D44" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>109</v>
+      <c r="B45" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="24" t="s">
         <v>111</v>
       </c>
+      <c r="D45" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="90.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>115</v>
+      <c r="B47" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="22" t="s">
         <v>117</v>
       </c>
+      <c r="D47" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="90.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="10"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="0"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="29" t="s">
+      <c r="B54" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="27" t="s">
+      <c r="C54" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="D54" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="F54" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" customFormat="false" ht="394.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" customFormat="false" ht="305.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="230.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="28" t="s">
         <v>140</v>
       </c>
+      <c r="D56" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="185.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="29" t="s">
         <v>142</v>
       </c>
+      <c r="C57" s="28" t="s">
+        <v>143</v>
+      </c>
       <c r="D57" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="29" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="10"/>
-    </row>
-    <row r="60" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="25"/>
+      <c r="C58" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="s">
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="31" t="s">
+      <c r="B62" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="C62" s="25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="B64" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="97.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="97.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="10"/>
+    </row>
+    <row r="72" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="16"/>
-    </row>
-    <row r="73" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" customFormat="false" ht="51.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="B75" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="35" t="s">
+      <c r="B76" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D76" s="34" t="s">
+      <c r="C76" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="D76" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="C77" s="34" t="s">
+        <v>190</v>
+      </c>
       <c r="D77" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="34" t="s">
         <v>192</v>
       </c>
+      <c r="C78" s="35" t="s">
+        <v>193</v>
+      </c>
       <c r="D78" s="34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79" s="34" t="s">
+      <c r="B79" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="G79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="230.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>203</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F81" s="0"/>
       <c r="G81" s="10"/>
-      <c r="N81" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="281.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="82" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="33" t="s">
         <v>205</v>
       </c>
       <c r="C82" s="35" t="s">
@@ -7544,9 +7668,11 @@
       <c r="D82" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="230.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16" t="s">
         <v>54</v>
       </c>
@@ -7559,805 +7685,812 @@
       <c r="D83" s="34" t="s">
         <v>210</v>
       </c>
+      <c r="F83" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="G83" s="10"/>
-    </row>
-    <row r="84" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N83" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="281.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="268.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="268.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>223</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" s="10"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="10"/>
-    </row>
-    <row r="90" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="10"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="10"/>
+    </row>
+    <row r="92" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="C92" s="38" t="s">
+      <c r="B92" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="37" t="s">
+      <c r="C92" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G96" s="10"/>
     </row>
-    <row r="97" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97" s="39" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>248</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C98" s="10"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="10"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="10"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B101" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="16" t="s">
+      <c r="B103" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="16" t="s">
+      <c r="B104" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="G104" s="10"/>
-    </row>
-    <row r="105" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="B105" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>264</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="16" t="s">
-        <v>273</v>
+        <v>54</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C109" s="43" t="s">
         <v>275</v>
       </c>
+      <c r="C109" s="42" t="s">
+        <v>276</v>
+      </c>
       <c r="D109" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G110" s="10"/>
     </row>
-    <row r="111" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="16" t="s">
-        <v>54</v>
+        <v>281</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C111" s="42" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>283</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C114" s="10"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="10"/>
-    </row>
-    <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="10"/>
+    </row>
+    <row r="118" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B116" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C116" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="D116" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16" t="s">
+      <c r="B118" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B117" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C117" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="B119" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C119" s="47" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="C119" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C120" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D120" s="49" t="s">
         <v>304</v>
       </c>
+      <c r="C120" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>306</v>
+      </c>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C121" s="48" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>308</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C123" s="50" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C123" s="48" t="s">
+        <v>314</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C124" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>317</v>
+      </c>
+      <c r="D124" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C125" s="10"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="10"/>
-    </row>
-    <row r="127" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" s="10"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="10"/>
+    </row>
+    <row r="129" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B127" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="G127" s="16" t="s">
+      <c r="B129" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="G129" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="16" t="s">
+    <row r="130" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B128" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="C128" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="D128" s="51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B129" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="C129" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="D129" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="G129" s="10"/>
-    </row>
-    <row r="130" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="B130" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="C130" s="53" t="s">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="C130" s="52" t="s">
+        <v>330</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B131" s="51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C131" s="53" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D131" s="51" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G131" s="10"/>
     </row>
-    <row r="132" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="16" t="s">
-        <v>333</v>
+        <v>72</v>
       </c>
       <c r="B132" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="C132" s="51" t="s">
         <v>335</v>
       </c>
+      <c r="C132" s="53" t="s">
+        <v>336</v>
+      </c>
       <c r="D132" s="51" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="167.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B133" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="C133" s="55" t="s">
+      <c r="B133" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="D133" s="54" t="s">
+      <c r="C133" s="53" t="s">
         <v>339</v>
       </c>
+      <c r="D133" s="51" t="s">
+        <v>340</v>
+      </c>
       <c r="G133" s="10"/>
     </row>
-    <row r="134" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B134" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="C134" s="55" t="s">
         <v>341</v>
       </c>
+      <c r="B134" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>343</v>
+      </c>
       <c r="D134" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="G134" s="10"/>
-    </row>
-    <row r="135" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="167.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B135" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="C135" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="D135" s="51" t="s">
+      <c r="B135" s="54" t="s">
         <v>345</v>
       </c>
+      <c r="C135" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="D135" s="54" t="s">
+        <v>347</v>
+      </c>
       <c r="G135" s="10"/>
     </row>
-    <row r="136" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="217.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B136" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="C136" s="51" t="s">
-        <v>347</v>
+        <v>54</v>
+      </c>
+      <c r="B136" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="C136" s="55" t="s">
+        <v>349</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C137" s="10"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="10"/>
-    </row>
-    <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="B137" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="C137" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="D137" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="D138" s="51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C139" s="10"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="10"/>
+    </row>
+    <row r="141" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B139" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C139" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D139" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="G139" s="16" t="s">
+      <c r="B141" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C141" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D141" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="G141" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="16" t="s">
+    <row r="142" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B140" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="C140" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="D140" s="56" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B141" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="C141" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="D141" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="G141" s="10"/>
-    </row>
-    <row r="142" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="B142" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="C142" s="58" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="C142" s="57" t="s">
+        <v>362</v>
       </c>
       <c r="D142" s="56" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8365,80 +8498,109 @@
         <v>54</v>
       </c>
       <c r="B143" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="C143" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="D143" s="60" t="s">
         <v>364</v>
       </c>
+      <c r="C143" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D143" s="56" t="s">
+        <v>366</v>
+      </c>
       <c r="G143" s="10"/>
     </row>
-    <row r="144" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B144" s="56" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C144" s="58" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D144" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="G144" s="10"/>
-    </row>
-    <row r="145" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B145" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="C145" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="D145" s="56" t="s">
         <v>370</v>
       </c>
+      <c r="C145" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="D145" s="60" t="s">
+        <v>372</v>
+      </c>
       <c r="G145" s="10"/>
     </row>
-    <row r="146" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B146" s="56" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C146" s="58" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D146" s="56" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>375</v>
+      </c>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C147" s="61"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="B147" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="D147" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C148" s="61"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="0"/>
+        <v>59</v>
+      </c>
+      <c r="B148" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="D148" s="56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C149" s="61"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C150" s="61"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8456,17 +8618,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>1</v>
@@ -8502,63 +8664,63 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>43</v>
@@ -8572,226 +8734,255 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="B15" s="18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>406</v>
-      </c>
-    </row>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>410</v>
+        <v>413</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>412</v>
-      </c>
-      <c r="D18" s="64" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>415</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>416</v>
+      <c r="B18" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>419</v>
+        <v>421</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="C21" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>422</v>
+      <c r="B22" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>410</v>
+        <v>430</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>415</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>419</v>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>425</v>
+        <v>427</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -8813,32 +9004,32 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>429</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>432</v>
+      <c r="A1" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>445</v>
       </c>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
@@ -8861,43 +9052,43 @@
       <c r="Z1" s="63"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
-        <v>433</v>
+      <c r="A2" s="67" t="s">
+        <v>446</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C2" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
-        <v>433</v>
+      <c r="A3" s="67" t="s">
+        <v>446</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
